--- a/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.800577306167213</v>
+        <v>0.8005773061670993</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0125043880605844</v>
+        <v>0.01250438806079046</v>
       </c>
       <c r="E2">
         <v>0.2450764930121707</v>
       </c>
       <c r="F2">
-        <v>2.042084515836748</v>
+        <v>2.042084515836763</v>
       </c>
       <c r="G2">
-        <v>1.61115088992868</v>
+        <v>1.611150889928695</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.593392106097781</v>
+        <v>2.593392106097795</v>
       </c>
       <c r="K2">
-        <v>0.8407921918167176</v>
+        <v>0.8407921918167318</v>
       </c>
       <c r="L2">
-        <v>1.022907911618887</v>
+        <v>1.022907911618873</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6952202959491274</v>
+        <v>0.695220295949099</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01195519129728595</v>
+        <v>0.01195519129718647</v>
       </c>
       <c r="E3">
         <v>0.2237273274227398</v>
       </c>
       <c r="F3">
-        <v>1.774819832684372</v>
+        <v>1.774819832684386</v>
       </c>
       <c r="G3">
         <v>1.402049913571517</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.244923168446618</v>
+        <v>2.244923168446633</v>
       </c>
       <c r="K3">
-        <v>0.7243635859924495</v>
+        <v>0.7243635859924424</v>
       </c>
       <c r="L3">
-        <v>0.8820711032922404</v>
+        <v>0.8820711032922475</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6314687021835539</v>
+        <v>0.6314687021835255</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01180992198310449</v>
+        <v>0.01180992198308672</v>
       </c>
       <c r="E4">
         <v>0.2107406520160104</v>
@@ -503,7 +503,7 @@
         <v>1.61794313176901</v>
       </c>
       <c r="G4">
-        <v>1.279725274450584</v>
+        <v>1.279725274450612</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.033453572045303</v>
+        <v>2.033453572045289</v>
       </c>
       <c r="K4">
         <v>0.6539884134970251</v>
       </c>
       <c r="L4">
-        <v>0.7968948632298805</v>
+        <v>0.7968948632298591</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6056922090102432</v>
+        <v>0.6056922090102148</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01179347120424268</v>
+        <v>0.01179347120435281</v>
       </c>
       <c r="E5">
-        <v>0.205472272419172</v>
+        <v>0.2054722724191684</v>
       </c>
       <c r="F5">
-        <v>1.555602831355188</v>
+        <v>1.555602831355202</v>
       </c>
       <c r="G5">
-        <v>1.23121160275879</v>
+        <v>1.231211602758776</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.947779721899806</v>
+        <v>1.947779721899792</v>
       </c>
       <c r="K5">
-        <v>0.6255406560474199</v>
+        <v>0.6255406560473986</v>
       </c>
       <c r="L5">
-        <v>0.7624566798121748</v>
+        <v>0.7624566798121961</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6014233823564439</v>
+        <v>0.6014233823565576</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01179317226559107</v>
+        <v>0.01179317226558751</v>
       </c>
       <c r="E6">
-        <v>0.2045987178037798</v>
+        <v>0.2045987178038047</v>
       </c>
       <c r="F6">
         <v>1.545340970750118</v>
       </c>
       <c r="G6">
-        <v>1.223231369079286</v>
+        <v>1.223231369079301</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>1.933580558281122</v>
       </c>
       <c r="K6">
-        <v>0.6208295271879294</v>
+        <v>0.6208295271879365</v>
       </c>
       <c r="L6">
-        <v>0.756753174458531</v>
+        <v>0.7567531744585239</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6311202917129037</v>
+        <v>0.6311202917129606</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01180953386121431</v>
+        <v>0.01180953386109707</v>
       </c>
       <c r="E7">
-        <v>0.2106695127819833</v>
+        <v>0.2106695127819904</v>
       </c>
       <c r="F7">
-        <v>1.617096242497098</v>
+        <v>1.617096242497084</v>
       </c>
       <c r="G7">
-        <v>1.279065835138326</v>
+        <v>1.27906583513834</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.032296268048086</v>
+        <v>2.0322962680481</v>
       </c>
       <c r="K7">
-        <v>0.6536038839864915</v>
+        <v>0.6536038839865199</v>
       </c>
       <c r="L7">
-        <v>0.7964293852655473</v>
+        <v>0.7964293852655544</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7640345668613406</v>
+        <v>0.7640345668613122</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01227165367919625</v>
+        <v>0.01227165367918559</v>
       </c>
       <c r="E8">
-        <v>0.2376855832248523</v>
+        <v>0.2376855832248452</v>
       </c>
       <c r="F8">
-        <v>1.948286564435378</v>
+        <v>1.948286564435406</v>
       </c>
       <c r="G8">
-        <v>1.537673021689429</v>
+        <v>1.537673021689443</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>2.472643095412067</v>
       </c>
       <c r="K8">
-        <v>0.8003854352243565</v>
+        <v>0.8003854352243849</v>
       </c>
       <c r="L8">
-        <v>0.9740431914528642</v>
+        <v>0.9740431914528571</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.033810489192206</v>
+        <v>1.033810489192263</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01499006865553909</v>
+        <v>0.01499006865554264</v>
       </c>
       <c r="E9">
-        <v>0.2920019655809369</v>
+        <v>0.2920019655809796</v>
       </c>
       <c r="F9">
         <v>2.666894156371029</v>
       </c>
       <c r="G9">
-        <v>2.102762787746698</v>
+        <v>2.102762787746684</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.362442086462991</v>
+        <v>3.362442086463005</v>
       </c>
       <c r="K9">
         <v>1.099596424327075</v>
       </c>
       <c r="L9">
-        <v>1.335465022272672</v>
+        <v>1.335465022272643</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.24028969192679</v>
+        <v>1.240289691926932</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01857389399955878</v>
+        <v>0.01857389399968312</v>
       </c>
       <c r="E10">
-        <v>0.3333640585627933</v>
+        <v>0.3333640585628359</v>
       </c>
       <c r="F10">
         <v>3.256348882810016</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.042908647187488</v>
+        <v>4.042908647187517</v>
       </c>
       <c r="K10">
-        <v>1.330530478904251</v>
+        <v>1.330530478904265</v>
       </c>
       <c r="L10">
-        <v>1.613597307589146</v>
+        <v>1.613597307589131</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.336742695745443</v>
+        <v>1.3367426957455</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02068567355783912</v>
+        <v>0.02068567355783202</v>
       </c>
       <c r="E11">
-        <v>0.3526844858442217</v>
+        <v>0.3526844858441933</v>
       </c>
       <c r="F11">
         <v>3.54321269545693</v>
       </c>
       <c r="G11">
-        <v>2.797318542298072</v>
+        <v>2.797318542298086</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.361240320399503</v>
+        <v>4.361240320399475</v>
       </c>
       <c r="K11">
-        <v>1.439148875033283</v>
+        <v>1.439148875033268</v>
       </c>
       <c r="L11">
-        <v>1.744118556870404</v>
+        <v>1.744118556870419</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.373701976404135</v>
+        <v>1.373701976404334</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02156906219251198</v>
+        <v>0.02156906219237698</v>
       </c>
       <c r="E12">
-        <v>0.3600933742497432</v>
+        <v>0.3600933742497929</v>
       </c>
       <c r="F12">
         <v>3.655084852821119</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.483352147606354</v>
+        <v>4.483352147606325</v>
       </c>
       <c r="K12">
-        <v>1.48091029678811</v>
+        <v>1.480910296788124</v>
       </c>
       <c r="L12">
         <v>1.794246209253728</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.365721534209058</v>
+        <v>1.365721534209172</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02137482185364803</v>
+        <v>0.02137482185376172</v>
       </c>
       <c r="E13">
-        <v>0.3584932453683578</v>
+        <v>0.3584932453683365</v>
       </c>
       <c r="F13">
         <v>3.630836994104754</v>
       </c>
       <c r="G13">
-        <v>2.867038941272241</v>
+        <v>2.867038941272298</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>4.456978039280841</v>
       </c>
       <c r="K13">
-        <v>1.471886098263596</v>
+        <v>1.471886098263582</v>
       </c>
       <c r="L13">
-        <v>1.78341681570322</v>
+        <v>1.783416815703234</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.339774194542571</v>
+        <v>1.339774194542684</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02075657894926408</v>
+        <v>0.02075657894915039</v>
       </c>
       <c r="E14">
-        <v>0.3532920305302127</v>
+        <v>0.3532920305302412</v>
       </c>
       <c r="F14">
-        <v>3.552347944238107</v>
+        <v>3.552347944238051</v>
       </c>
       <c r="G14">
-        <v>2.804585105138614</v>
+        <v>2.804585105138585</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>4.371253189684239</v>
       </c>
       <c r="K14">
-        <v>1.442571234476603</v>
+        <v>1.442571234476617</v>
       </c>
       <c r="L14">
-        <v>1.748227705050056</v>
+        <v>1.748227705050041</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.323939628891338</v>
+        <v>1.323939628891424</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02038927002100976</v>
+        <v>0.0203892700207895</v>
       </c>
       <c r="E15">
-        <v>0.3501188797375434</v>
+        <v>0.350118879737515</v>
       </c>
       <c r="F15">
-        <v>3.504711676046441</v>
+        <v>3.504711676046412</v>
       </c>
       <c r="G15">
         <v>2.766698681521149</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.318958256800187</v>
+        <v>4.318958256800158</v>
       </c>
       <c r="K15">
-        <v>1.42470093831426</v>
+        <v>1.424700938314274</v>
       </c>
       <c r="L15">
         <v>1.726768967331992</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.234042918324121</v>
+        <v>1.23404291832415</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0.01844674180667383</v>
       </c>
       <c r="E16">
-        <v>0.3321131930699863</v>
+        <v>0.3321131930700147</v>
       </c>
       <c r="F16">
         <v>3.238023086489562</v>
       </c>
       <c r="G16">
-        <v>2.554850862860022</v>
+        <v>2.554850862860036</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>4.022306326855556</v>
       </c>
       <c r="K16">
-        <v>1.323513292677987</v>
+        <v>1.323513292677973</v>
       </c>
       <c r="L16">
-        <v>1.605158239165476</v>
+        <v>1.605158239165519</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.179588177501927</v>
+        <v>1.179588177502012</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01738776439423262</v>
+        <v>0.01738776439422551</v>
       </c>
       <c r="E17">
         <v>0.3212094551728697</v>
       </c>
       <c r="F17">
-        <v>3.07957290261578</v>
+        <v>3.079572902615809</v>
       </c>
       <c r="G17">
         <v>2.429199109630218</v>
@@ -1009,7 +1009,7 @@
         <v>3.842768264419192</v>
       </c>
       <c r="K17">
-        <v>1.262427976428782</v>
+        <v>1.26242797642881</v>
       </c>
       <c r="L17">
         <v>1.531661434759698</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.148499969466513</v>
+        <v>1.148499969466542</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01682296587443233</v>
+        <v>0.01682296587478405</v>
       </c>
       <c r="E18">
-        <v>0.3149839717564475</v>
+        <v>0.3149839717564404</v>
       </c>
       <c r="F18">
-        <v>2.990159875629786</v>
+        <v>2.990159875629757</v>
       </c>
       <c r="G18">
-        <v>2.358368575629683</v>
+        <v>2.358368575629669</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.740308350541056</v>
+        <v>3.740308350541</v>
       </c>
       <c r="K18">
-        <v>1.227620741081125</v>
+        <v>1.227620741081139</v>
       </c>
       <c r="L18">
-        <v>1.489755455675066</v>
+        <v>1.489755455675052</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.138012010154739</v>
+        <v>1.138012010154711</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01663894956693213</v>
+        <v>0.01663894956681844</v>
       </c>
       <c r="E19">
-        <v>0.3128834997835312</v>
+        <v>0.3128834997835099</v>
       </c>
       <c r="F19">
-        <v>2.960166999914037</v>
+        <v>2.960166999914065</v>
       </c>
       <c r="G19">
         <v>2.334621420472303</v>
@@ -1085,10 +1085,10 @@
         <v>3.705747212809143</v>
       </c>
       <c r="K19">
-        <v>1.215888614123855</v>
+        <v>1.215888614123841</v>
       </c>
       <c r="L19">
-        <v>1.475626403875268</v>
+        <v>1.475626403875253</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.185360410463943</v>
+        <v>1.185360410464</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01749581443596071</v>
+        <v>0.01749581443583281</v>
       </c>
       <c r="E20">
-        <v>0.3223652785562834</v>
+        <v>0.3223652785563047</v>
       </c>
       <c r="F20">
         <v>3.096258173601058</v>
       </c>
       <c r="G20">
-        <v>2.442422751053769</v>
+        <v>2.442422751053783</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.347383131249273</v>
+        <v>1.347383131249188</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02093576939328656</v>
+        <v>0.02093576939327235</v>
       </c>
       <c r="E21">
-        <v>0.3548170549633056</v>
+        <v>0.3548170549632985</v>
       </c>
       <c r="F21">
-        <v>3.575309131259559</v>
+        <v>3.575309131259615</v>
       </c>
       <c r="G21">
-        <v>2.822851591525449</v>
+        <v>2.822851591525477</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>4.396387428937516</v>
       </c>
       <c r="K21">
-        <v>1.451163576391266</v>
+        <v>1.451163576391281</v>
       </c>
       <c r="L21">
-        <v>1.758543413859798</v>
+        <v>1.758543413859812</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.455850107766963</v>
+        <v>1.455850107766821</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02368099976454729</v>
+        <v>0.02368099976457572</v>
       </c>
       <c r="E22">
-        <v>0.3765792677415121</v>
+        <v>0.3765792677415334</v>
       </c>
       <c r="F22">
-        <v>3.907639351984756</v>
+        <v>3.907639351984727</v>
       </c>
       <c r="G22">
-        <v>3.087573621520789</v>
+        <v>3.087573621520761</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.755091838080205</v>
+        <v>4.755091838080233</v>
       </c>
       <c r="K22">
-        <v>1.574029813980431</v>
+        <v>1.574029813980417</v>
       </c>
       <c r="L22">
-        <v>1.905905497452395</v>
+        <v>1.90590549745238</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.39769662048991</v>
+        <v>1.397696620489796</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02216470424764694</v>
+        <v>0.02216470424754391</v>
       </c>
       <c r="E23">
-        <v>0.3649058167136658</v>
+        <v>0.3649058167137014</v>
       </c>
       <c r="F23">
         <v>3.728295819898847</v>
       </c>
       <c r="G23">
-        <v>2.944637009207725</v>
+        <v>2.944637009207696</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.562675571125737</v>
+        <v>4.562675571125652</v>
       </c>
       <c r="K23">
-        <v>1.508066336463145</v>
+        <v>1.508066336463173</v>
       </c>
       <c r="L23">
-        <v>1.826825567876767</v>
+        <v>1.826825567876739</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.182750108463779</v>
+        <v>1.182750108463921</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01744682894487681</v>
+        <v>0.01744682894453931</v>
       </c>
       <c r="E24">
-        <v>0.3218425976352677</v>
+        <v>0.3218425976352322</v>
       </c>
       <c r="F24">
         <v>3.088709563437703</v>
       </c>
       <c r="G24">
-        <v>2.436439989716433</v>
+        <v>2.436439989716447</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>1.265970814325399</v>
       </c>
       <c r="L24">
-        <v>1.535925750851291</v>
+        <v>1.535925750851305</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.959593691482155</v>
+        <v>0.9595936914821834</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01401594780523752</v>
+        <v>0.01401594780534765</v>
       </c>
       <c r="E25">
-        <v>0.2771061164810149</v>
+        <v>0.277106116481022</v>
       </c>
       <c r="F25">
         <v>2.463274837761247</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.117910103734658</v>
+        <v>3.117910103734701</v>
       </c>
       <c r="K25">
-        <v>1.017042587943664</v>
+        <v>1.017042587943649</v>
       </c>
       <c r="L25">
-        <v>1.235852829914791</v>
+        <v>1.235852829914762</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8005773061670993</v>
+        <v>0.800577306167213</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01250438806079046</v>
+        <v>0.0125043880605844</v>
       </c>
       <c r="E2">
         <v>0.2450764930121707</v>
       </c>
       <c r="F2">
-        <v>2.042084515836763</v>
+        <v>2.042084515836748</v>
       </c>
       <c r="G2">
-        <v>1.611150889928695</v>
+        <v>1.61115088992868</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.593392106097795</v>
+        <v>2.593392106097781</v>
       </c>
       <c r="K2">
-        <v>0.8407921918167318</v>
+        <v>0.8407921918167176</v>
       </c>
       <c r="L2">
-        <v>1.022907911618873</v>
+        <v>1.022907911618887</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.695220295949099</v>
+        <v>0.6952202959491274</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01195519129718647</v>
+        <v>0.01195519129728595</v>
       </c>
       <c r="E3">
         <v>0.2237273274227398</v>
       </c>
       <c r="F3">
-        <v>1.774819832684386</v>
+        <v>1.774819832684372</v>
       </c>
       <c r="G3">
         <v>1.402049913571517</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.244923168446633</v>
+        <v>2.244923168446618</v>
       </c>
       <c r="K3">
-        <v>0.7243635859924424</v>
+        <v>0.7243635859924495</v>
       </c>
       <c r="L3">
-        <v>0.8820711032922475</v>
+        <v>0.8820711032922404</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6314687021835255</v>
+        <v>0.6314687021835539</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01180992198308672</v>
+        <v>0.01180992198310449</v>
       </c>
       <c r="E4">
         <v>0.2107406520160104</v>
@@ -503,7 +503,7 @@
         <v>1.61794313176901</v>
       </c>
       <c r="G4">
-        <v>1.279725274450612</v>
+        <v>1.279725274450584</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.033453572045289</v>
+        <v>2.033453572045303</v>
       </c>
       <c r="K4">
         <v>0.6539884134970251</v>
       </c>
       <c r="L4">
-        <v>0.7968948632298591</v>
+        <v>0.7968948632298805</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6056922090102148</v>
+        <v>0.6056922090102432</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01179347120435281</v>
+        <v>0.01179347120424268</v>
       </c>
       <c r="E5">
-        <v>0.2054722724191684</v>
+        <v>0.205472272419172</v>
       </c>
       <c r="F5">
-        <v>1.555602831355202</v>
+        <v>1.555602831355188</v>
       </c>
       <c r="G5">
-        <v>1.231211602758776</v>
+        <v>1.23121160275879</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.947779721899792</v>
+        <v>1.947779721899806</v>
       </c>
       <c r="K5">
-        <v>0.6255406560473986</v>
+        <v>0.6255406560474199</v>
       </c>
       <c r="L5">
-        <v>0.7624566798121961</v>
+        <v>0.7624566798121748</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6014233823565576</v>
+        <v>0.6014233823564439</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01179317226558751</v>
+        <v>0.01179317226559107</v>
       </c>
       <c r="E6">
-        <v>0.2045987178038047</v>
+        <v>0.2045987178037798</v>
       </c>
       <c r="F6">
         <v>1.545340970750118</v>
       </c>
       <c r="G6">
-        <v>1.223231369079301</v>
+        <v>1.223231369079286</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>1.933580558281122</v>
       </c>
       <c r="K6">
-        <v>0.6208295271879365</v>
+        <v>0.6208295271879294</v>
       </c>
       <c r="L6">
-        <v>0.7567531744585239</v>
+        <v>0.756753174458531</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6311202917129606</v>
+        <v>0.6311202917129037</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01180953386109707</v>
+        <v>0.01180953386121431</v>
       </c>
       <c r="E7">
-        <v>0.2106695127819904</v>
+        <v>0.2106695127819833</v>
       </c>
       <c r="F7">
-        <v>1.617096242497084</v>
+        <v>1.617096242497098</v>
       </c>
       <c r="G7">
-        <v>1.27906583513834</v>
+        <v>1.279065835138326</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.0322962680481</v>
+        <v>2.032296268048086</v>
       </c>
       <c r="K7">
-        <v>0.6536038839865199</v>
+        <v>0.6536038839864915</v>
       </c>
       <c r="L7">
-        <v>0.7964293852655544</v>
+        <v>0.7964293852655473</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7640345668613122</v>
+        <v>0.7640345668613406</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01227165367918559</v>
+        <v>0.01227165367919625</v>
       </c>
       <c r="E8">
-        <v>0.2376855832248452</v>
+        <v>0.2376855832248523</v>
       </c>
       <c r="F8">
-        <v>1.948286564435406</v>
+        <v>1.948286564435378</v>
       </c>
       <c r="G8">
-        <v>1.537673021689443</v>
+        <v>1.537673021689429</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,10 +667,10 @@
         <v>2.472643095412067</v>
       </c>
       <c r="K8">
-        <v>0.8003854352243849</v>
+        <v>0.8003854352243565</v>
       </c>
       <c r="L8">
-        <v>0.9740431914528571</v>
+        <v>0.9740431914528642</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.033810489192263</v>
+        <v>1.033810489192206</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01499006865554264</v>
+        <v>0.01499006865553909</v>
       </c>
       <c r="E9">
-        <v>0.2920019655809796</v>
+        <v>0.2920019655809369</v>
       </c>
       <c r="F9">
         <v>2.666894156371029</v>
       </c>
       <c r="G9">
-        <v>2.102762787746684</v>
+        <v>2.102762787746698</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,13 +702,13 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.362442086463005</v>
+        <v>3.362442086462991</v>
       </c>
       <c r="K9">
         <v>1.099596424327075</v>
       </c>
       <c r="L9">
-        <v>1.335465022272643</v>
+        <v>1.335465022272672</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.240289691926932</v>
+        <v>1.24028969192679</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01857389399968312</v>
+        <v>0.01857389399955878</v>
       </c>
       <c r="E10">
-        <v>0.3333640585628359</v>
+        <v>0.3333640585627933</v>
       </c>
       <c r="F10">
         <v>3.256348882810016</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.042908647187517</v>
+        <v>4.042908647187488</v>
       </c>
       <c r="K10">
-        <v>1.330530478904265</v>
+        <v>1.330530478904251</v>
       </c>
       <c r="L10">
-        <v>1.613597307589131</v>
+        <v>1.613597307589146</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.3367426957455</v>
+        <v>1.336742695745443</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02068567355783202</v>
+        <v>0.02068567355783912</v>
       </c>
       <c r="E11">
-        <v>0.3526844858441933</v>
+        <v>0.3526844858442217</v>
       </c>
       <c r="F11">
         <v>3.54321269545693</v>
       </c>
       <c r="G11">
-        <v>2.797318542298086</v>
+        <v>2.797318542298072</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.361240320399475</v>
+        <v>4.361240320399503</v>
       </c>
       <c r="K11">
-        <v>1.439148875033268</v>
+        <v>1.439148875033283</v>
       </c>
       <c r="L11">
-        <v>1.744118556870419</v>
+        <v>1.744118556870404</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.373701976404334</v>
+        <v>1.373701976404135</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02156906219237698</v>
+        <v>0.02156906219251198</v>
       </c>
       <c r="E12">
-        <v>0.3600933742497929</v>
+        <v>0.3600933742497432</v>
       </c>
       <c r="F12">
         <v>3.655084852821119</v>
@@ -816,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.483352147606325</v>
+        <v>4.483352147606354</v>
       </c>
       <c r="K12">
-        <v>1.480910296788124</v>
+        <v>1.48091029678811</v>
       </c>
       <c r="L12">
         <v>1.794246209253728</v>
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.365721534209172</v>
+        <v>1.365721534209058</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02137482185376172</v>
+        <v>0.02137482185364803</v>
       </c>
       <c r="E13">
-        <v>0.3584932453683365</v>
+        <v>0.3584932453683578</v>
       </c>
       <c r="F13">
         <v>3.630836994104754</v>
       </c>
       <c r="G13">
-        <v>2.867038941272298</v>
+        <v>2.867038941272241</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>4.456978039280841</v>
       </c>
       <c r="K13">
-        <v>1.471886098263582</v>
+        <v>1.471886098263596</v>
       </c>
       <c r="L13">
-        <v>1.783416815703234</v>
+        <v>1.78341681570322</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.339774194542684</v>
+        <v>1.339774194542571</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02075657894915039</v>
+        <v>0.02075657894926408</v>
       </c>
       <c r="E14">
-        <v>0.3532920305302412</v>
+        <v>0.3532920305302127</v>
       </c>
       <c r="F14">
-        <v>3.552347944238051</v>
+        <v>3.552347944238107</v>
       </c>
       <c r="G14">
-        <v>2.804585105138585</v>
+        <v>2.804585105138614</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>4.371253189684239</v>
       </c>
       <c r="K14">
-        <v>1.442571234476617</v>
+        <v>1.442571234476603</v>
       </c>
       <c r="L14">
-        <v>1.748227705050041</v>
+        <v>1.748227705050056</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.323939628891424</v>
+        <v>1.323939628891338</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0203892700207895</v>
+        <v>0.02038927002100976</v>
       </c>
       <c r="E15">
-        <v>0.350118879737515</v>
+        <v>0.3501188797375434</v>
       </c>
       <c r="F15">
-        <v>3.504711676046412</v>
+        <v>3.504711676046441</v>
       </c>
       <c r="G15">
         <v>2.766698681521149</v>
@@ -930,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.318958256800158</v>
+        <v>4.318958256800187</v>
       </c>
       <c r="K15">
-        <v>1.424700938314274</v>
+        <v>1.42470093831426</v>
       </c>
       <c r="L15">
         <v>1.726768967331992</v>
@@ -944,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.23404291832415</v>
+        <v>1.234042918324121</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0.01844674180667383</v>
       </c>
       <c r="E16">
-        <v>0.3321131930700147</v>
+        <v>0.3321131930699863</v>
       </c>
       <c r="F16">
         <v>3.238023086489562</v>
       </c>
       <c r="G16">
-        <v>2.554850862860036</v>
+        <v>2.554850862860022</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>4.022306326855556</v>
       </c>
       <c r="K16">
-        <v>1.323513292677973</v>
+        <v>1.323513292677987</v>
       </c>
       <c r="L16">
-        <v>1.605158239165519</v>
+        <v>1.605158239165476</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.179588177502012</v>
+        <v>1.179588177501927</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01738776439422551</v>
+        <v>0.01738776439423262</v>
       </c>
       <c r="E17">
         <v>0.3212094551728697</v>
       </c>
       <c r="F17">
-        <v>3.079572902615809</v>
+        <v>3.07957290261578</v>
       </c>
       <c r="G17">
         <v>2.429199109630218</v>
@@ -1009,7 +1009,7 @@
         <v>3.842768264419192</v>
       </c>
       <c r="K17">
-        <v>1.26242797642881</v>
+        <v>1.262427976428782</v>
       </c>
       <c r="L17">
         <v>1.531661434759698</v>
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.148499969466542</v>
+        <v>1.148499969466513</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01682296587478405</v>
+        <v>0.01682296587443233</v>
       </c>
       <c r="E18">
-        <v>0.3149839717564404</v>
+        <v>0.3149839717564475</v>
       </c>
       <c r="F18">
-        <v>2.990159875629757</v>
+        <v>2.990159875629786</v>
       </c>
       <c r="G18">
-        <v>2.358368575629669</v>
+        <v>2.358368575629683</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.740308350541</v>
+        <v>3.740308350541056</v>
       </c>
       <c r="K18">
-        <v>1.227620741081139</v>
+        <v>1.227620741081125</v>
       </c>
       <c r="L18">
-        <v>1.489755455675052</v>
+        <v>1.489755455675066</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.138012010154711</v>
+        <v>1.138012010154739</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01663894956681844</v>
+        <v>0.01663894956693213</v>
       </c>
       <c r="E19">
-        <v>0.3128834997835099</v>
+        <v>0.3128834997835312</v>
       </c>
       <c r="F19">
-        <v>2.960166999914065</v>
+        <v>2.960166999914037</v>
       </c>
       <c r="G19">
         <v>2.334621420472303</v>
@@ -1085,10 +1085,10 @@
         <v>3.705747212809143</v>
       </c>
       <c r="K19">
-        <v>1.215888614123841</v>
+        <v>1.215888614123855</v>
       </c>
       <c r="L19">
-        <v>1.475626403875253</v>
+        <v>1.475626403875268</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,22 +1096,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.185360410464</v>
+        <v>1.185360410463943</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01749581443583281</v>
+        <v>0.01749581443596071</v>
       </c>
       <c r="E20">
-        <v>0.3223652785563047</v>
+        <v>0.3223652785562834</v>
       </c>
       <c r="F20">
         <v>3.096258173601058</v>
       </c>
       <c r="G20">
-        <v>2.442422751053783</v>
+        <v>2.442422751053769</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.347383131249188</v>
+        <v>1.347383131249273</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02093576939327235</v>
+        <v>0.02093576939328656</v>
       </c>
       <c r="E21">
-        <v>0.3548170549632985</v>
+        <v>0.3548170549633056</v>
       </c>
       <c r="F21">
-        <v>3.575309131259615</v>
+        <v>3.575309131259559</v>
       </c>
       <c r="G21">
-        <v>2.822851591525477</v>
+        <v>2.822851591525449</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>4.396387428937516</v>
       </c>
       <c r="K21">
-        <v>1.451163576391281</v>
+        <v>1.451163576391266</v>
       </c>
       <c r="L21">
-        <v>1.758543413859812</v>
+        <v>1.758543413859798</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.455850107766821</v>
+        <v>1.455850107766963</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02368099976457572</v>
+        <v>0.02368099976454729</v>
       </c>
       <c r="E22">
-        <v>0.3765792677415334</v>
+        <v>0.3765792677415121</v>
       </c>
       <c r="F22">
-        <v>3.907639351984727</v>
+        <v>3.907639351984756</v>
       </c>
       <c r="G22">
-        <v>3.087573621520761</v>
+        <v>3.087573621520789</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.755091838080233</v>
+        <v>4.755091838080205</v>
       </c>
       <c r="K22">
-        <v>1.574029813980417</v>
+        <v>1.574029813980431</v>
       </c>
       <c r="L22">
-        <v>1.90590549745238</v>
+        <v>1.905905497452395</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.397696620489796</v>
+        <v>1.39769662048991</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02216470424754391</v>
+        <v>0.02216470424764694</v>
       </c>
       <c r="E23">
-        <v>0.3649058167137014</v>
+        <v>0.3649058167136658</v>
       </c>
       <c r="F23">
         <v>3.728295819898847</v>
       </c>
       <c r="G23">
-        <v>2.944637009207696</v>
+        <v>2.944637009207725</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.562675571125652</v>
+        <v>4.562675571125737</v>
       </c>
       <c r="K23">
-        <v>1.508066336463173</v>
+        <v>1.508066336463145</v>
       </c>
       <c r="L23">
-        <v>1.826825567876739</v>
+        <v>1.826825567876767</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.182750108463921</v>
+        <v>1.182750108463779</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01744682894453931</v>
+        <v>0.01744682894487681</v>
       </c>
       <c r="E24">
-        <v>0.3218425976352322</v>
+        <v>0.3218425976352677</v>
       </c>
       <c r="F24">
         <v>3.088709563437703</v>
       </c>
       <c r="G24">
-        <v>2.436439989716447</v>
+        <v>2.436439989716433</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>1.265970814325399</v>
       </c>
       <c r="L24">
-        <v>1.535925750851305</v>
+        <v>1.535925750851291</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9595936914821834</v>
+        <v>0.959593691482155</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01401594780534765</v>
+        <v>0.01401594780523752</v>
       </c>
       <c r="E25">
-        <v>0.277106116481022</v>
+        <v>0.2771061164810149</v>
       </c>
       <c r="F25">
         <v>2.463274837761247</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.117910103734701</v>
+        <v>3.117910103734658</v>
       </c>
       <c r="K25">
-        <v>1.017042587943649</v>
+        <v>1.017042587943664</v>
       </c>
       <c r="L25">
-        <v>1.235852829914762</v>
+        <v>1.235852829914791</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.800577306167213</v>
+        <v>0.8005584945944406</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0125043880605844</v>
+        <v>0.01238443911881149</v>
       </c>
       <c r="E2">
-        <v>0.2450764930121707</v>
+        <v>0.2449543616928977</v>
       </c>
       <c r="F2">
-        <v>2.042084515836748</v>
+        <v>2.037832626317979</v>
       </c>
       <c r="G2">
-        <v>1.61115088992868</v>
+        <v>0.5329787715486702</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1.077643392650941</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.593392106097781</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8407921918167176</v>
+        <v>2.593037571926246</v>
       </c>
       <c r="L2">
-        <v>1.022907911618887</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.8407126357671046</v>
+      </c>
+      <c r="M2">
+        <v>1.022838342742574</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6952202959491274</v>
+        <v>0.6952097367798729</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01195519129728595</v>
+        <v>0.01185060240499425</v>
       </c>
       <c r="E3">
-        <v>0.2237273274227398</v>
+        <v>0.2236319523864161</v>
       </c>
       <c r="F3">
-        <v>1.774819832684372</v>
+        <v>1.771148960646514</v>
       </c>
       <c r="G3">
-        <v>1.402049913571517</v>
+        <v>0.4596304846798063</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.9426143907658542</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.244923168446618</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7243635859924495</v>
+        <v>2.244668056924937</v>
       </c>
       <c r="L3">
-        <v>0.8820711032922404</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.7243091060528144</v>
+      </c>
+      <c r="M3">
+        <v>0.8820250126457836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6314687021835539</v>
+        <v>0.6314620656405339</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01180992198310449</v>
+        <v>0.01171402579486625</v>
       </c>
       <c r="E4">
-        <v>0.2107406520160104</v>
+        <v>0.2106613151416745</v>
       </c>
       <c r="F4">
-        <v>1.61794313176901</v>
+        <v>1.614613295194175</v>
       </c>
       <c r="G4">
-        <v>1.279725274450584</v>
+        <v>0.4165714809315659</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8637751252612134</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.033453572045303</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6539884134970251</v>
+        <v>2.033252753030581</v>
       </c>
       <c r="L4">
-        <v>0.7968948632298805</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.6539470687080353</v>
+      </c>
+      <c r="M4">
+        <v>0.7968608077533261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6056922090102432</v>
+        <v>0.6056869259739983</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01179347120424268</v>
+        <v>0.01170095646840252</v>
       </c>
       <c r="E5">
-        <v>0.205472272419172</v>
+        <v>0.2053994088882689</v>
       </c>
       <c r="F5">
-        <v>1.555602831355188</v>
+        <v>1.552408656439539</v>
       </c>
       <c r="G5">
-        <v>1.23121160275879</v>
+        <v>0.3994573597164219</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.832545521419803</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1.947779721899806</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6255406560474199</v>
+        <v>1.947599616694916</v>
       </c>
       <c r="L5">
-        <v>0.7624566798121748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.6255041877549203</v>
+      </c>
+      <c r="M5">
+        <v>0.7624270244622906</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6014233823564439</v>
+        <v>0.6014183104044832</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01179317226559107</v>
+        <v>0.01170120996327029</v>
       </c>
       <c r="E6">
-        <v>0.2045987178037798</v>
+        <v>0.2045269263491498</v>
       </c>
       <c r="F6">
-        <v>1.545340970750118</v>
+        <v>1.542169139233792</v>
       </c>
       <c r="G6">
-        <v>1.223231369079286</v>
+        <v>0.3966399571954753</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.8274106993382873</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1.933580558281122</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6208295271879294</v>
+        <v>1.933403814994506</v>
       </c>
       <c r="L6">
-        <v>0.756753174458531</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.6207938423197845</v>
+      </c>
+      <c r="M6">
+        <v>0.7567242217819015</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6311202917129037</v>
+        <v>0.6311136743639452</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01180953386121431</v>
+        <v>0.01171368389744742</v>
       </c>
       <c r="E7">
-        <v>0.2106695127819833</v>
+        <v>0.2105902634183003</v>
       </c>
       <c r="F7">
-        <v>1.617096242497098</v>
+        <v>1.613768248138555</v>
       </c>
       <c r="G7">
-        <v>1.279065835138326</v>
+        <v>0.4163390017822053</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8633504715733835</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.032296268048086</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6536038839864915</v>
+        <v>2.032095733749998</v>
       </c>
       <c r="L7">
-        <v>0.7964293852655473</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.6535626067794382</v>
+      </c>
+      <c r="M7">
+        <v>0.7963953910580912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7640345668613406</v>
+        <v>0.7640188660843705</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01227165367919625</v>
+        <v>0.01215717015256246</v>
       </c>
       <c r="E8">
-        <v>0.2376855832248523</v>
+        <v>0.2375727818104707</v>
       </c>
       <c r="F8">
-        <v>1.948286564435378</v>
+        <v>1.944238684231621</v>
       </c>
       <c r="G8">
-        <v>1.537673021689429</v>
+        <v>0.5072369038318953</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1.030161114280787</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.472643095412067</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8003854352243565</v>
+        <v>2.472324430845859</v>
       </c>
       <c r="L8">
-        <v>0.9740431914528642</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.8003150551643472</v>
+      </c>
+      <c r="M8">
+        <v>0.9739822734227843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.033810489192206</v>
+        <v>1.03376555351602</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01499006865553909</v>
+        <v>0.01483185556584488</v>
       </c>
       <c r="E9">
-        <v>0.2920019655809369</v>
+        <v>0.2918183070685529</v>
       </c>
       <c r="F9">
-        <v>2.666894156371029</v>
+        <v>2.661275348488573</v>
       </c>
       <c r="G9">
-        <v>2.102762787746698</v>
+        <v>0.7045064082086157</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.396038031099266</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.362442086462991</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>1.099596424327075</v>
+        <v>3.361822467973127</v>
       </c>
       <c r="L9">
-        <v>1.335465022272672</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>1.099445942577091</v>
+      </c>
+      <c r="M9">
+        <v>1.335327240235358</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.24028969192679</v>
+        <v>1.240212193653576</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01857389399955878</v>
+        <v>0.0183768830608706</v>
       </c>
       <c r="E10">
-        <v>0.3333640585627933</v>
+        <v>0.3331217905166284</v>
       </c>
       <c r="F10">
-        <v>3.256348882810016</v>
+        <v>3.249418787340403</v>
       </c>
       <c r="G10">
-        <v>2.569393902860483</v>
+        <v>0.8664895743893766</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.699081894932334</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.042908647187488</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1.330530478904251</v>
+        <v>4.041998051601666</v>
       </c>
       <c r="L10">
-        <v>1.613597307589146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>1.330298118018234</v>
+      </c>
+      <c r="M10">
+        <v>1.613379242616006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.336742695745443</v>
+        <v>1.336646717877812</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02068567355783912</v>
+        <v>0.02046888436506578</v>
       </c>
       <c r="E11">
-        <v>0.3526844858442217</v>
+        <v>0.3524130698583505</v>
       </c>
       <c r="F11">
-        <v>3.54321269545693</v>
+        <v>3.535633892795801</v>
       </c>
       <c r="G11">
-        <v>2.797318542298072</v>
+        <v>0.9453929326774499</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.847315704376285</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.361240320399503</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>1.439148875033283</v>
+        <v>4.360173745593357</v>
       </c>
       <c r="L11">
-        <v>1.744118556870404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>1.438871500882016</v>
+      </c>
+      <c r="M11">
+        <v>1.743855992902525</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.373701976404135</v>
+        <v>1.373598331706148</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02156906219251198</v>
+        <v>0.02134440237974644</v>
       </c>
       <c r="E12">
-        <v>0.3600933742497432</v>
+        <v>0.3598104431865607</v>
       </c>
       <c r="F12">
-        <v>3.655084852821119</v>
+        <v>3.647250890636116</v>
       </c>
       <c r="G12">
-        <v>2.886340291859895</v>
+        <v>0.9761778340098601</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.905243922982962</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.483352147606354</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1.48091029678811</v>
+        <v>4.482222162045673</v>
       </c>
       <c r="L12">
-        <v>1.794246209253728</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>1.480614447629918</v>
+      </c>
+      <c r="M12">
+        <v>1.793965330231885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.365721534209058</v>
+        <v>1.365619573132363</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02137482185364803</v>
+        <v>0.02115187546740671</v>
       </c>
       <c r="E13">
-        <v>0.3584932453683578</v>
+        <v>0.3582128177846968</v>
       </c>
       <c r="F13">
-        <v>3.630836994104754</v>
+        <v>3.623058445577584</v>
       </c>
       <c r="G13">
-        <v>2.867038941272241</v>
+        <v>0.9695046511151446</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.892682727721564</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.456978039280841</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1.471886098263596</v>
+        <v>4.455861921542493</v>
       </c>
       <c r="L13">
-        <v>1.78341681570322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>1.471594297529819</v>
+      </c>
+      <c r="M13">
+        <v>1.783139952281914</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.339774194542571</v>
+        <v>1.339677600278492</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02075657894926408</v>
+        <v>0.02053915036976051</v>
       </c>
       <c r="E14">
-        <v>0.3532920305302127</v>
+        <v>0.3530196775649515</v>
       </c>
       <c r="F14">
-        <v>3.552347944238107</v>
+        <v>3.544748353361939</v>
       </c>
       <c r="G14">
-        <v>2.804585105138614</v>
+        <v>0.947906467210359</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.852043564661926</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.371253189684239</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1.442571234476603</v>
+        <v>4.370181491482072</v>
       </c>
       <c r="L14">
-        <v>1.748227705050056</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>1.442292371126385</v>
+      </c>
+      <c r="M14">
+        <v>1.747963665767486</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.323939628891338</v>
+        <v>1.323846229968893</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02038927002100976</v>
+        <v>0.02017516908875905</v>
       </c>
       <c r="E15">
-        <v>0.3501188797375434</v>
+        <v>0.3498514064204272</v>
       </c>
       <c r="F15">
-        <v>3.504711676046441</v>
+        <v>3.497220395310762</v>
       </c>
       <c r="G15">
-        <v>2.766698681521149</v>
+        <v>0.934800076008159</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.827394707637254</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.318958256800187</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>1.42470093831426</v>
+        <v>4.317913168449337</v>
       </c>
       <c r="L15">
-        <v>1.726768967331992</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>1.424429802575048</v>
+      </c>
+      <c r="M15">
+        <v>1.726512581621989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.234042918324121</v>
+        <v>1.23396654267242</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01844674180667383</v>
+        <v>0.01825097459838076</v>
       </c>
       <c r="E16">
-        <v>0.3321131930699863</v>
+        <v>0.3318727703514028</v>
       </c>
       <c r="F16">
-        <v>3.238023086489562</v>
+        <v>3.231134175459488</v>
       </c>
       <c r="G16">
-        <v>2.554850862860022</v>
+        <v>0.8614506701977689</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.689627889736968</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.022306326855556</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>1.323513292677987</v>
+        <v>4.021405374200015</v>
       </c>
       <c r="L16">
-        <v>1.605158239165476</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>1.323283692389026</v>
+      </c>
+      <c r="M16">
+        <v>1.604942896565589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.179588177501927</v>
+        <v>1.179521216285593</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01738776439423262</v>
+        <v>0.01720265134889587</v>
       </c>
       <c r="E17">
-        <v>0.3212094551728697</v>
+        <v>0.3209849146410306</v>
       </c>
       <c r="F17">
-        <v>3.07957290261578</v>
+        <v>3.073038884915519</v>
       </c>
       <c r="G17">
-        <v>2.429199109630218</v>
+        <v>0.8178910610956649</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.607968402546007</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>3.842768264419192</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>1.262427976428782</v>
+        <v>3.841949086297973</v>
       </c>
       <c r="L17">
-        <v>1.531661434759698</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>1.262221670342967</v>
+      </c>
+      <c r="M17">
+        <v>1.531469027229207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.148499969466513</v>
+        <v>1.14843808840385</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01682296587443233</v>
+        <v>0.01664378585054394</v>
       </c>
       <c r="E18">
-        <v>0.3149839717564475</v>
+        <v>0.3147683409956272</v>
       </c>
       <c r="F18">
-        <v>2.990159875629786</v>
+        <v>2.983825215560842</v>
       </c>
       <c r="G18">
-        <v>2.358368575629683</v>
+        <v>0.7933168396237988</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.561955658675927</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3.740308350541056</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>1.227620741081125</v>
+        <v>3.739534053789811</v>
       </c>
       <c r="L18">
-        <v>1.489755455675066</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>1.227427125118936</v>
+      </c>
+      <c r="M18">
+        <v>1.489575512064619</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.138012010154739</v>
+        <v>1.137951795381127</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01663894956693213</v>
+        <v>0.01646174686697677</v>
       </c>
       <c r="E19">
-        <v>0.3128834997835312</v>
+        <v>0.3126708501852988</v>
       </c>
       <c r="F19">
-        <v>2.960166999914037</v>
+        <v>2.95389907313583</v>
       </c>
       <c r="G19">
-        <v>2.334621420472303</v>
+        <v>0.7850746132522204</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.546532347204263</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>3.705747212809143</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.215888614123855</v>
+        <v>3.704987767317675</v>
       </c>
       <c r="L19">
-        <v>1.475626403875268</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>1.215699181423403</v>
+      </c>
+      <c r="M19">
+        <v>1.475450563684205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.185360410463943</v>
+        <v>1.185292482623055</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01749581443596071</v>
+        <v>0.01730958789985593</v>
       </c>
       <c r="E20">
-        <v>0.3223652785562834</v>
+        <v>0.3221390714183343</v>
       </c>
       <c r="F20">
-        <v>3.096258173601058</v>
+        <v>3.089686883241825</v>
       </c>
       <c r="G20">
-        <v>2.442422751053769</v>
+        <v>0.8224773311247304</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.616560277544096</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>3.861795000676295</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>1.268895944437148</v>
+        <v>3.860967346452782</v>
       </c>
       <c r="L20">
-        <v>1.539446416891195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>1.268687233930038</v>
+      </c>
+      <c r="M20">
+        <v>1.539251645231261</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.347383131249273</v>
+        <v>1.34728498010179</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02093576939328656</v>
+        <v>0.02071673113386652</v>
       </c>
       <c r="E21">
-        <v>0.3548170549633056</v>
+        <v>0.3545423443638853</v>
       </c>
       <c r="F21">
-        <v>3.575309131259559</v>
+        <v>3.567657252819345</v>
       </c>
       <c r="G21">
-        <v>2.822851591525449</v>
+        <v>0.9542243966995869</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.863928836119356</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.396387428937516</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>1.451163576391266</v>
+        <v>4.395302810421327</v>
       </c>
       <c r="L21">
-        <v>1.758543413859798</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>1.450880954739247</v>
+      </c>
+      <c r="M21">
+        <v>1.758275650520858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.455850107766963</v>
+        <v>1.455728208007173</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02368099976454729</v>
+        <v>0.02343824629481972</v>
       </c>
       <c r="E22">
-        <v>0.3765792677415121</v>
+        <v>0.3762699928101512</v>
       </c>
       <c r="F22">
-        <v>3.907639351984756</v>
+        <v>3.899224479963436</v>
       </c>
       <c r="G22">
-        <v>3.087573621520789</v>
+        <v>1.04570512943522</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.03624966567898</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.755091838080205</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>1.574029813980431</v>
+        <v>4.753813306992669</v>
       </c>
       <c r="L22">
-        <v>1.905905497452395</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>1.573690341026108</v>
+      </c>
+      <c r="M22">
+        <v>1.90558127832935</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.39769662048991</v>
+        <v>1.397587819075994</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02216470424764694</v>
+        <v>0.02193484591813899</v>
       </c>
       <c r="E23">
-        <v>0.3649058167136658</v>
+        <v>0.3646153003988459</v>
       </c>
       <c r="F23">
-        <v>3.728295819898847</v>
+        <v>3.720294174549537</v>
       </c>
       <c r="G23">
-        <v>2.944637009207725</v>
+        <v>0.9963282937537201</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.943187701244398</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.562675571125737</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>1.508066336463145</v>
+        <v>4.561503297521</v>
       </c>
       <c r="L23">
-        <v>1.826825567876767</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>1.50775811570989</v>
+      </c>
+      <c r="M23">
+        <v>1.826532410302391</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.182750108463779</v>
+        <v>1.182682618658703</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01744682894487681</v>
+        <v>0.01726110641116918</v>
       </c>
       <c r="E24">
-        <v>0.3218425976352677</v>
+        <v>0.3216171446500695</v>
       </c>
       <c r="F24">
-        <v>3.088709563437703</v>
+        <v>3.082155138466135</v>
       </c>
       <c r="G24">
-        <v>2.436439989716433</v>
+        <v>0.820402429661101</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.612673002546515</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>3.853190671505331</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1.265970814325399</v>
+        <v>3.852366855899987</v>
       </c>
       <c r="L24">
-        <v>1.535925750851291</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>1.265763193021414</v>
+      </c>
+      <c r="M24">
+        <v>1.535732050239702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.959593691482155</v>
+        <v>0.9595582583618238</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01401594780523752</v>
+        <v>0.0138705428851722</v>
       </c>
       <c r="E25">
-        <v>0.2771061164810149</v>
+        <v>0.2769424801236937</v>
       </c>
       <c r="F25">
-        <v>2.463274837761247</v>
+        <v>2.458103501903537</v>
       </c>
       <c r="G25">
-        <v>1.942173841083331</v>
+        <v>0.6485921022577088</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.291914530482842</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.117910103734658</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>1.017042587943664</v>
+        <v>3.117381807855821</v>
       </c>
       <c r="L25">
-        <v>1.235852829914791</v>
+        <v>1.016917048466411</v>
+      </c>
+      <c r="M25">
+        <v>1.235739239274807</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8005584945944406</v>
+        <v>0.2703868060587666</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01238443911881149</v>
+        <v>0.2481886986292068</v>
       </c>
       <c r="E2">
-        <v>0.2449543616928977</v>
+        <v>0.07131878477289177</v>
       </c>
       <c r="F2">
-        <v>2.037832626317979</v>
+        <v>5.035387112915345</v>
       </c>
       <c r="G2">
-        <v>0.5329787715486702</v>
+        <v>0.0007243174746562886</v>
       </c>
       <c r="H2">
-        <v>1.077643392650941</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.03179121661766793</v>
       </c>
       <c r="K2">
-        <v>2.593037571926246</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.8407126357671046</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.022838342742574</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>4.24927255743475</v>
+      </c>
+      <c r="N2">
+        <v>1.523169021679223</v>
+      </c>
+      <c r="O2">
+        <v>4.31982033653324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6952097367798729</v>
+        <v>0.2364699838304176</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01185060240499425</v>
+        <v>0.2117045412334022</v>
       </c>
       <c r="E3">
-        <v>0.2236319523864161</v>
+        <v>0.0647634015152363</v>
       </c>
       <c r="F3">
-        <v>1.771148960646514</v>
+        <v>4.372656737735156</v>
       </c>
       <c r="G3">
-        <v>0.4596304846798063</v>
+        <v>0.0007416832012290264</v>
       </c>
       <c r="H3">
-        <v>0.9426143907658542</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.03392054040250247</v>
       </c>
       <c r="K3">
-        <v>2.244668056924937</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7243091060528144</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8820250126457836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>3.654887441299337</v>
+      </c>
+      <c r="N3">
+        <v>1.455684085371814</v>
+      </c>
+      <c r="O3">
+        <v>3.730753690968271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6314620656405339</v>
+        <v>0.2158011996518923</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01171402579486625</v>
+        <v>0.1901788666501432</v>
       </c>
       <c r="E4">
-        <v>0.2106613151416745</v>
+        <v>0.06083465345623118</v>
       </c>
       <c r="F4">
-        <v>1.614613295194175</v>
+        <v>3.988656260663532</v>
       </c>
       <c r="G4">
-        <v>0.4165714809315659</v>
+        <v>0.0007524252281919304</v>
       </c>
       <c r="H4">
-        <v>0.8637751252612134</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0352838413440697</v>
       </c>
       <c r="K4">
-        <v>2.033252753030581</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6539470687080353</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7968608077533261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>3.299406550780802</v>
+      </c>
+      <c r="N4">
+        <v>1.415631448950123</v>
+      </c>
+      <c r="O4">
+        <v>3.388686059557983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6056869259739983</v>
+        <v>0.2074134069805638</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01170095646840252</v>
+        <v>0.1815828591658857</v>
       </c>
       <c r="E5">
-        <v>0.2053994088882689</v>
+        <v>0.05925243722853502</v>
       </c>
       <c r="F5">
-        <v>1.552408656439539</v>
+        <v>3.837007515461323</v>
       </c>
       <c r="G5">
-        <v>0.3994573597164219</v>
+        <v>0.0007568336390955798</v>
       </c>
       <c r="H5">
-        <v>0.832545521419803</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03585344115168088</v>
       </c>
       <c r="K5">
-        <v>1.947599616694916</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6255041877549203</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7624270244622906</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>3.156478304938901</v>
+      </c>
+      <c r="N5">
+        <v>1.399645758820796</v>
+      </c>
+      <c r="O5">
+        <v>3.25341419083513</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6014183104044832</v>
+        <v>0.2060226078724838</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01170120996327029</v>
+        <v>0.1801649733155273</v>
       </c>
       <c r="E6">
-        <v>0.2045269263491498</v>
+        <v>0.05899070638537118</v>
       </c>
       <c r="F6">
-        <v>1.542169139233792</v>
+        <v>3.81209412322093</v>
       </c>
       <c r="G6">
-        <v>0.3966399571954753</v>
+        <v>0.0007575678085946044</v>
       </c>
       <c r="H6">
-        <v>0.8274106993382873</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03594887025361171</v>
       </c>
       <c r="K6">
-        <v>1.933403814994506</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6207938423197845</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7567242217819015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3.132850240403059</v>
+      </c>
+      <c r="N6">
+        <v>1.397011315305036</v>
+      </c>
+      <c r="O6">
+        <v>3.231180307264808</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6311136743639452</v>
+        <v>0.2156879431277048</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01171368389744742</v>
+        <v>0.1900622786056232</v>
       </c>
       <c r="E7">
-        <v>0.2105902634183003</v>
+        <v>0.06081324551653822</v>
       </c>
       <c r="F7">
-        <v>1.613768248138555</v>
+        <v>3.986592611750808</v>
       </c>
       <c r="G7">
-        <v>0.4163390017822053</v>
+        <v>0.0007524845431145789</v>
       </c>
       <c r="H7">
-        <v>0.8633504715733835</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03529146633325198</v>
       </c>
       <c r="K7">
-        <v>2.032095733749998</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6535626067794382</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7963953910580912</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>3.297471681292123</v>
+      </c>
+      <c r="N7">
+        <v>1.41541451459014</v>
+      </c>
+      <c r="O7">
+        <v>3.386846012169002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7640188660843705</v>
+        <v>0.2586570596306785</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01215717015256246</v>
+        <v>0.2353977901045141</v>
       </c>
       <c r="E8">
-        <v>0.2375727818104707</v>
+        <v>0.06903487598601998</v>
       </c>
       <c r="F8">
-        <v>1.944238684231621</v>
+        <v>4.801508630218109</v>
       </c>
       <c r="G8">
-        <v>0.5072369038318953</v>
+        <v>0.0007302959345208114</v>
       </c>
       <c r="H8">
-        <v>1.030161114280787</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.03251381040617751</v>
       </c>
       <c r="K8">
-        <v>2.472324430845859</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0.8003150551643472</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9739822734227843</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4.042065426202825</v>
+      </c>
+      <c r="N8">
+        <v>1.499605769506928</v>
+      </c>
+      <c r="O8">
+        <v>4.112102951651792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.03376555351602</v>
+        <v>0.3443872894585951</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01483185556584488</v>
+        <v>0.3338173649503631</v>
       </c>
       <c r="E9">
-        <v>0.2918183070685529</v>
+        <v>0.08624241606097982</v>
       </c>
       <c r="F9">
-        <v>2.661275348488573</v>
+        <v>6.634313636313948</v>
       </c>
       <c r="G9">
-        <v>0.7045064082086157</v>
+        <v>0.000686789074615617</v>
       </c>
       <c r="H9">
-        <v>1.396038031099266</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02750887281552039</v>
       </c>
       <c r="K9">
-        <v>3.361822467973127</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.099445942577091</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>1.335327240235358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>5.603123054466693</v>
+      </c>
+      <c r="N9">
+        <v>1.67625071644224</v>
+      </c>
+      <c r="O9">
+        <v>5.736259511698137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.240212193653576</v>
+        <v>0.4086442638643888</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0183768830608706</v>
+        <v>0.4168609190828079</v>
       </c>
       <c r="E10">
-        <v>0.3331217905166284</v>
+        <v>0.1001779664660809</v>
       </c>
       <c r="F10">
-        <v>3.249418787340403</v>
+        <v>8.223494687404809</v>
       </c>
       <c r="G10">
-        <v>0.8664895743893766</v>
+        <v>0.0006536523867570148</v>
       </c>
       <c r="H10">
-        <v>1.699081894932334</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.02409496189331506</v>
       </c>
       <c r="K10">
-        <v>4.041998051601666</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>1.330298118018234</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.613379242616006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>6.860202889934868</v>
+      </c>
+      <c r="N10">
+        <v>1.813885840979538</v>
+      </c>
+      <c r="O10">
+        <v>7.139726092257831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.336646717877812</v>
+        <v>0.4382582457759838</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.02046888436506578</v>
+        <v>0.4587057327134971</v>
       </c>
       <c r="E11">
-        <v>0.3524130698583505</v>
+        <v>0.1070272724821564</v>
       </c>
       <c r="F11">
-        <v>3.535633892795801</v>
+        <v>9.033195545063364</v>
       </c>
       <c r="G11">
-        <v>0.9453929326774499</v>
+        <v>0.0006379206766884415</v>
       </c>
       <c r="H11">
-        <v>1.847315704376285</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.02259573417820171</v>
       </c>
       <c r="K11">
-        <v>4.360173745593357</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>1.438871500882016</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>1.743855992902525</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7.472723536215312</v>
+      </c>
+      <c r="N11">
+        <v>1.878369286543574</v>
+      </c>
+      <c r="O11">
+        <v>7.853712430386935</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.373598331706148</v>
+        <v>0.4495387018469614</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.02134440237974644</v>
+        <v>0.4753630597260212</v>
       </c>
       <c r="E12">
-        <v>0.3598104431865607</v>
+        <v>0.1097248792298195</v>
       </c>
       <c r="F12">
-        <v>3.647250890636116</v>
+        <v>9.356638243125019</v>
       </c>
       <c r="G12">
-        <v>0.9761778340098601</v>
+        <v>0.0006318174302789146</v>
       </c>
       <c r="H12">
-        <v>1.905243922982962</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.02203524661413425</v>
       </c>
       <c r="K12">
-        <v>4.482222162045673</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1.480614447629918</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>1.793965330231885</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>7.712657840126326</v>
+      </c>
+      <c r="N12">
+        <v>1.90306614007369</v>
+      </c>
+      <c r="O12">
+        <v>8.13876651476599</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.365619573132363</v>
+        <v>0.447106094056366</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.02115187546740671</v>
+        <v>0.4717347829811445</v>
       </c>
       <c r="E13">
-        <v>0.3582128177846968</v>
+        <v>0.1091386331412423</v>
       </c>
       <c r="F13">
-        <v>3.623058445577584</v>
+        <v>9.286141137403462</v>
       </c>
       <c r="G13">
-        <v>0.9695046511151446</v>
+        <v>0.0006331394271359425</v>
       </c>
       <c r="H13">
-        <v>1.892682727721564</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02215564665953096</v>
       </c>
       <c r="K13">
-        <v>4.455861921542493</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>1.471594297529819</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>1.783139952281914</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7.660584422360984</v>
+      </c>
+      <c r="N13">
+        <v>1.897734775169567</v>
+      </c>
+      <c r="O13">
+        <v>8.076643233251559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.339677600278492</v>
+        <v>0.4391848921945893</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.02053915036976051</v>
+        <v>0.4600582130825615</v>
       </c>
       <c r="E14">
-        <v>0.3530196775649515</v>
+        <v>0.1072468964610493</v>
       </c>
       <c r="F14">
-        <v>3.544748353361939</v>
+        <v>9.05943661151727</v>
       </c>
       <c r="G14">
-        <v>0.947906467210359</v>
+        <v>0.0006374218582735125</v>
       </c>
       <c r="H14">
-        <v>1.852043564661926</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02254948130294387</v>
       </c>
       <c r="K14">
-        <v>4.370181491482072</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1.442292371126385</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>1.747963665767486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7.492287504268376</v>
+      </c>
+      <c r="N14">
+        <v>1.88039550290469</v>
+      </c>
+      <c r="O14">
+        <v>7.876842011785072</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.323846229968893</v>
+        <v>0.434341943034056</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.02017516908875905</v>
+        <v>0.4530200999865883</v>
       </c>
       <c r="E15">
-        <v>0.3498514064204272</v>
+        <v>0.1061028366800016</v>
       </c>
       <c r="F15">
-        <v>3.497220395310762</v>
+        <v>8.922924898791649</v>
       </c>
       <c r="G15">
-        <v>0.934800076008159</v>
+        <v>0.0006400240640838715</v>
       </c>
       <c r="H15">
-        <v>1.827394707637254</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.0227916395983101</v>
       </c>
       <c r="K15">
-        <v>4.317913168449337</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>1.424429802575048</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>1.726512581621989</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>7.390319567374945</v>
+      </c>
+      <c r="N15">
+        <v>1.869811116709741</v>
+      </c>
+      <c r="O15">
+        <v>7.756510848189635</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.23396654267242</v>
+        <v>0.4067175221169919</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01825097459838076</v>
+        <v>0.41422538208964</v>
       </c>
       <c r="E16">
-        <v>0.3318727703514028</v>
+        <v>0.09974292567001442</v>
       </c>
       <c r="F16">
-        <v>3.231134175459488</v>
+        <v>8.172658166231059</v>
       </c>
       <c r="G16">
-        <v>0.8614506701977689</v>
+        <v>0.0006546633196189422</v>
       </c>
       <c r="H16">
-        <v>1.689627889736968</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02419398547622897</v>
       </c>
       <c r="K16">
-        <v>4.021405374200015</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>1.323283692389026</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>1.604942896565589</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>6.821155300436374</v>
+      </c>
+      <c r="N16">
+        <v>1.809710278197201</v>
+      </c>
+      <c r="O16">
+        <v>7.094878101000234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.179521216285593</v>
+        <v>0.3898760760290401</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01720265134889587</v>
+        <v>0.3916016437386531</v>
       </c>
       <c r="E17">
-        <v>0.3209849146410306</v>
+        <v>0.09598980076997066</v>
       </c>
       <c r="F17">
-        <v>3.073038884915519</v>
+        <v>7.737208762996715</v>
       </c>
       <c r="G17">
-        <v>0.8178910610956649</v>
+        <v>0.0006634449931794226</v>
       </c>
       <c r="H17">
-        <v>1.607968402546007</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02506777590630804</v>
       </c>
       <c r="K17">
-        <v>3.841949086297973</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.262221670342967</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.531469027229207</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6.483679655061763</v>
+      </c>
+      <c r="N17">
+        <v>1.773327999164678</v>
+      </c>
+      <c r="O17">
+        <v>6.710609617062744</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.14843808840385</v>
+        <v>0.3802245842404233</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01664378585054394</v>
+        <v>0.3789543035945115</v>
       </c>
       <c r="E18">
-        <v>0.3147683409956272</v>
+        <v>0.09387669736813464</v>
       </c>
       <c r="F18">
-        <v>2.983825215560842</v>
+        <v>7.494581754502491</v>
       </c>
       <c r="G18">
-        <v>0.7933168396237988</v>
+        <v>0.0006684380489531043</v>
       </c>
       <c r="H18">
-        <v>1.561955658675927</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02557546003109756</v>
       </c>
       <c r="K18">
-        <v>3.739534053789811</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1.227427125118936</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>1.489575512064619</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>6.293235306590361</v>
+      </c>
+      <c r="N18">
+        <v>1.752577768763643</v>
+      </c>
+      <c r="O18">
+        <v>6.49640389509338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.137951795381127</v>
+        <v>0.3769625150615354</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01646174686697677</v>
+        <v>0.3747293947395036</v>
       </c>
       <c r="E19">
-        <v>0.3126708501852988</v>
+        <v>0.09316833943164582</v>
       </c>
       <c r="F19">
-        <v>2.95389907313583</v>
+        <v>7.413671377041709</v>
       </c>
       <c r="G19">
-        <v>0.7850746132522204</v>
+        <v>0.0006701199161943609</v>
       </c>
       <c r="H19">
-        <v>1.546532347204263</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02574824074795501</v>
       </c>
       <c r="K19">
-        <v>3.704987767317675</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1.215699181423403</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>1.475450563684205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6.229331061034799</v>
+      </c>
+      <c r="N19">
+        <v>1.74558194822626</v>
+      </c>
+      <c r="O19">
+        <v>6.424954859854807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.185292482623055</v>
+        <v>0.3916651551840573</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01730958789985593</v>
+        <v>0.3939708311649213</v>
       </c>
       <c r="E20">
-        <v>0.3221390714183343</v>
+        <v>0.09638442852244467</v>
       </c>
       <c r="F20">
-        <v>3.089686883241825</v>
+        <v>7.782726385461757</v>
       </c>
       <c r="G20">
-        <v>0.8224773311247304</v>
+        <v>0.0006625164733061433</v>
       </c>
       <c r="H20">
-        <v>1.616560277544096</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02497423407117338</v>
       </c>
       <c r="K20">
-        <v>3.860967346452782</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>1.268687233930038</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>1.539251645231261</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6.5192126039409</v>
+      </c>
+      <c r="N20">
+        <v>1.777182667398876</v>
+      </c>
+      <c r="O20">
+        <v>6.750787353293902</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.34728498010179</v>
+        <v>0.4415096377964858</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02071673113386652</v>
+        <v>0.4634635642804028</v>
       </c>
       <c r="E21">
-        <v>0.3545423443638853</v>
+        <v>0.1077994089856809</v>
       </c>
       <c r="F21">
-        <v>3.567657252819345</v>
+        <v>9.125524670557269</v>
       </c>
       <c r="G21">
-        <v>0.9542243966995869</v>
+        <v>0.0006361684861224248</v>
       </c>
       <c r="H21">
-        <v>1.863928836119356</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02243361142176603</v>
       </c>
       <c r="K21">
-        <v>4.395302810421327</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>1.450880954739247</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1.758275650520858</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>7.541482047621059</v>
+      </c>
+      <c r="N21">
+        <v>1.885480871344811</v>
+      </c>
+      <c r="O21">
+        <v>7.935091395843301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.455728208007173</v>
+        <v>0.474479987008948</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02343824629481972</v>
+        <v>0.5138037917816263</v>
       </c>
       <c r="E22">
-        <v>0.3762699928101512</v>
+        <v>0.1158921110302913</v>
       </c>
       <c r="F22">
-        <v>3.899224479963436</v>
+        <v>10.10478959627417</v>
       </c>
       <c r="G22">
-        <v>1.04570512943522</v>
+        <v>0.0006180550227875732</v>
       </c>
       <c r="H22">
-        <v>2.03624966567898</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02081489247922619</v>
       </c>
       <c r="K22">
-        <v>4.753813306992669</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>1.573690341026108</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>1.90558127832935</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>8.257912608892468</v>
+      </c>
+      <c r="N22">
+        <v>1.957880951994809</v>
+      </c>
+      <c r="O22">
+        <v>8.797846338775514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.397587819075994</v>
+        <v>0.4568424465407759</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02193484591813899</v>
+        <v>0.486380949057164</v>
       </c>
       <c r="E23">
-        <v>0.3646153003988459</v>
+        <v>0.1115006347132486</v>
       </c>
       <c r="F23">
-        <v>3.720294174549537</v>
+        <v>9.570854240465621</v>
       </c>
       <c r="G23">
-        <v>0.9963282937537201</v>
+        <v>0.0006278277411221698</v>
       </c>
       <c r="H23">
-        <v>1.943187701244398</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02167525912731527</v>
       </c>
       <c r="K23">
-        <v>4.561503297521</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1.50775811570989</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>1.826532410302391</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>7.870143756348511</v>
+      </c>
+      <c r="N23">
+        <v>1.919090316167285</v>
+      </c>
+      <c r="O23">
+        <v>8.327515811424007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.182682618658703</v>
+        <v>0.390856217113452</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01726110641116918</v>
+        <v>0.392898617792909</v>
       </c>
       <c r="E24">
-        <v>0.3216171446500695</v>
+        <v>0.09620588042694678</v>
       </c>
       <c r="F24">
-        <v>3.082155138466135</v>
+        <v>7.762124126593619</v>
       </c>
       <c r="G24">
-        <v>0.820402429661101</v>
+        <v>0.0006629364268449881</v>
       </c>
       <c r="H24">
-        <v>1.612673002546515</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02501650769859509</v>
       </c>
       <c r="K24">
-        <v>3.852366855899987</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1.265763193021414</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>1.535732050239702</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>6.503137170226609</v>
+      </c>
+      <c r="N24">
+        <v>1.77543945430628</v>
+      </c>
+      <c r="O24">
+        <v>6.73260234548161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9595582583618238</v>
+        <v>0.3210025030473531</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.0138705428851722</v>
+        <v>0.3057523381597207</v>
       </c>
       <c r="E25">
-        <v>0.2769424801236937</v>
+        <v>0.08141796288048653</v>
       </c>
       <c r="F25">
-        <v>2.458103501903537</v>
+        <v>6.104761619116488</v>
       </c>
       <c r="G25">
-        <v>0.6485921022577088</v>
+        <v>0.0006986598660555304</v>
       </c>
       <c r="H25">
-        <v>1.291914530482842</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02881590738850193</v>
       </c>
       <c r="K25">
-        <v>3.117381807855821</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>1.016917048466411</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>1.235739239274807</v>
+        <v>5.165816945623618</v>
+      </c>
+      <c r="N25">
+        <v>1.62714359291013</v>
+      </c>
+      <c r="O25">
+        <v>5.267745354174707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2703868060587666</v>
+        <v>2.164329471966653</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2481886986292068</v>
+        <v>0.1648892395157873</v>
       </c>
       <c r="E2">
-        <v>0.07131878477289177</v>
+        <v>0.2037512714225223</v>
       </c>
       <c r="F2">
-        <v>5.035387112915345</v>
+        <v>1.518948188504979</v>
       </c>
       <c r="G2">
-        <v>0.0007243174746562886</v>
+        <v>1.713234656481632</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.9371463560683253</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2970476529321857</v>
       </c>
       <c r="J2">
-        <v>0.03179121661766793</v>
+        <v>0.2832697865480611</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.533757671870831</v>
       </c>
       <c r="M2">
-        <v>4.24927255743475</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.523169021679223</v>
+        <v>1.011221031926368</v>
       </c>
       <c r="O2">
-        <v>4.31982033653324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2364699838304176</v>
+        <v>1.889819420995053</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2117045412334022</v>
+        <v>0.1484145126914811</v>
       </c>
       <c r="E3">
-        <v>0.0647634015152363</v>
+        <v>0.1843442603598646</v>
       </c>
       <c r="F3">
-        <v>4.372656737735156</v>
+        <v>1.377162668043141</v>
       </c>
       <c r="G3">
-        <v>0.0007416832012290264</v>
+        <v>1.514410002308068</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.852190530092173</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.316274512269981</v>
       </c>
       <c r="J3">
-        <v>0.03392054040250247</v>
+        <v>0.2568585545752882</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1.33161492187088</v>
       </c>
       <c r="M3">
-        <v>3.654887441299337</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.455684085371814</v>
+        <v>1.015566456290827</v>
       </c>
       <c r="O3">
-        <v>3.730753690968271</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2158011996518923</v>
+        <v>1.722356421613881</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1901788666501432</v>
+        <v>0.1384041170929109</v>
       </c>
       <c r="E4">
-        <v>0.06083465345623118</v>
+        <v>0.1724939501399732</v>
       </c>
       <c r="F4">
-        <v>3.988656260663532</v>
+        <v>1.293685038039357</v>
       </c>
       <c r="G4">
-        <v>0.0007524252281919304</v>
+        <v>1.396236725879788</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.8021411069024111</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3291682203459416</v>
       </c>
       <c r="J4">
-        <v>0.0352838413440697</v>
+        <v>0.2407003985226268</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1.208656516709482</v>
       </c>
       <c r="M4">
-        <v>3.299406550780802</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.415631448950123</v>
+        <v>1.019397746892821</v>
       </c>
       <c r="O4">
-        <v>3.388686059557983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2074134069805638</v>
+        <v>1.654346893254285</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1815828591658857</v>
+        <v>0.1343451107080753</v>
       </c>
       <c r="E5">
-        <v>0.05925243722853502</v>
+        <v>0.1676767148107317</v>
       </c>
       <c r="F5">
-        <v>3.837007515461323</v>
+        <v>1.260486426416648</v>
       </c>
       <c r="G5">
-        <v>0.0007568336390955798</v>
+        <v>1.34896064677352</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.7822294541120698</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.3346832864238269</v>
       </c>
       <c r="J5">
-        <v>0.03585344115168088</v>
+        <v>0.2341257135307586</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1.158796917099437</v>
       </c>
       <c r="M5">
-        <v>3.156478304938901</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.399645758820796</v>
+        <v>1.021242671847688</v>
       </c>
       <c r="O5">
-        <v>3.25341419083513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2060226078724838</v>
+        <v>1.643066914387589</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1801649733155273</v>
+        <v>0.133672174009952</v>
       </c>
       <c r="E6">
-        <v>0.05899070638537118</v>
+        <v>0.166877405254489</v>
       </c>
       <c r="F6">
-        <v>3.81209412322093</v>
+        <v>1.255021052299583</v>
       </c>
       <c r="G6">
-        <v>0.0007575678085946044</v>
+        <v>1.341160845008005</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.7789510421280568</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.3356144479176546</v>
       </c>
       <c r="J6">
-        <v>0.03594887025361171</v>
+        <v>0.2330344579674914</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1.150531458439417</v>
       </c>
       <c r="M6">
-        <v>3.132850240403059</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.397011315305036</v>
+        <v>1.021565904201339</v>
       </c>
       <c r="O6">
-        <v>3.231180307264808</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2156879431277048</v>
+        <v>1.721438329024352</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1900622786056232</v>
+        <v>0.1383493013662545</v>
       </c>
       <c r="E7">
-        <v>0.06081324551653822</v>
+        <v>0.1724289410221154</v>
       </c>
       <c r="F7">
-        <v>3.986592611750808</v>
+        <v>1.293234095427223</v>
       </c>
       <c r="G7">
-        <v>0.0007524845431145789</v>
+        <v>1.395595707750772</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.8018706724076878</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3292415590152586</v>
       </c>
       <c r="J7">
-        <v>0.03529146633325198</v>
+        <v>0.2406116959744367</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1.207983148691795</v>
       </c>
       <c r="M7">
-        <v>3.297471681292123</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.41541451459014</v>
+        <v>1.019421490989927</v>
       </c>
       <c r="O7">
-        <v>3.386846012169002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2586570596306785</v>
+        <v>2.069427337908394</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2353977901045141</v>
+        <v>0.1591830512835557</v>
       </c>
       <c r="E8">
-        <v>0.06903487598601998</v>
+        <v>0.1970431573866591</v>
       </c>
       <c r="F8">
-        <v>4.801508630218109</v>
+        <v>1.469267010167073</v>
       </c>
       <c r="G8">
-        <v>0.0007302959345208114</v>
+        <v>1.643805483567292</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.9073849877446207</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.3034431626843705</v>
       </c>
       <c r="J8">
-        <v>0.03251381040617751</v>
+        <v>0.2741480175835918</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1.463790639337162</v>
       </c>
       <c r="M8">
-        <v>4.042065426202825</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.499605769506928</v>
+        <v>1.012472399613671</v>
       </c>
       <c r="O8">
-        <v>4.112102951651792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3443872894585951</v>
+        <v>2.762489959077527</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3338173649503631</v>
+        <v>0.2011836220695784</v>
       </c>
       <c r="E9">
-        <v>0.08624241606097982</v>
+        <v>0.2460699972028308</v>
       </c>
       <c r="F9">
-        <v>6.634313636313948</v>
+        <v>1.846874359240118</v>
       </c>
       <c r="G9">
-        <v>0.000686789074615617</v>
+        <v>2.166587281266658</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1.133437467643148</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.2621145802004392</v>
       </c>
       <c r="J9">
-        <v>0.02750887281552039</v>
+        <v>0.3406225678020149</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1.976841643039364</v>
       </c>
       <c r="M9">
-        <v>5.603123054466693</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.67625071644224</v>
+        <v>1.008506262447909</v>
       </c>
       <c r="O9">
-        <v>5.736259511698137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4086442638643888</v>
+        <v>3.281351593089369</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4168609190828079</v>
+        <v>0.2332351032654998</v>
       </c>
       <c r="E10">
-        <v>0.1001779664660809</v>
+        <v>0.2829313847094994</v>
       </c>
       <c r="F10">
-        <v>8.223494687404809</v>
+        <v>2.150261263750622</v>
       </c>
       <c r="G10">
-        <v>0.0006536523867570148</v>
+        <v>2.580486484308352</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.314859190599577</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.2383459021440757</v>
       </c>
       <c r="J10">
-        <v>0.02409496189331506</v>
+        <v>0.3902887180263974</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>2.36422552837692</v>
       </c>
       <c r="M10">
-        <v>6.860202889934868</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.813885840979538</v>
+        <v>1.012134072049221</v>
       </c>
       <c r="O10">
-        <v>7.139726092257831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4382582457759838</v>
+        <v>3.520298877592836</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4587057327134971</v>
+        <v>0.248205910352624</v>
       </c>
       <c r="E11">
-        <v>0.1070272724821564</v>
+        <v>0.2999832413904642</v>
       </c>
       <c r="F11">
-        <v>9.033195545063364</v>
+        <v>2.295494630588678</v>
       </c>
       <c r="G11">
-        <v>0.0006379206766884415</v>
+        <v>2.777253990725569</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.401661543615006</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.2292015111046481</v>
       </c>
       <c r="J11">
-        <v>0.02259573417820171</v>
+        <v>0.4131668862163735</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>2.543619896552343</v>
       </c>
       <c r="M11">
-        <v>7.472723536215312</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.878369286543574</v>
+        <v>1.015364795368939</v>
       </c>
       <c r="O11">
-        <v>7.853712430386935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4495387018469614</v>
+        <v>3.611276352136372</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4753630597260212</v>
+        <v>0.2539439089502054</v>
       </c>
       <c r="E12">
-        <v>0.1097248792298195</v>
+        <v>0.3064908575390533</v>
       </c>
       <c r="F12">
-        <v>9.356638243125019</v>
+        <v>2.351679401609729</v>
       </c>
       <c r="G12">
-        <v>0.0006318174302789146</v>
+        <v>2.853175536650042</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.435235301700601</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.2260009317835596</v>
       </c>
       <c r="J12">
-        <v>0.02203524661413425</v>
+        <v>0.4218813446363896</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>2.612093201662304</v>
       </c>
       <c r="M12">
-        <v>7.712657840126326</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.90306614007369</v>
+        <v>1.016830148688356</v>
       </c>
       <c r="O12">
-        <v>8.13876651476599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.447106094056366</v>
+        <v>3.591659506838482</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4717347829811445</v>
+        <v>0.2527048415763744</v>
       </c>
       <c r="E13">
-        <v>0.1091386331412423</v>
+        <v>0.3050869123371811</v>
       </c>
       <c r="F13">
-        <v>9.286141137403462</v>
+        <v>2.339523584274033</v>
       </c>
       <c r="G13">
-        <v>0.0006331394271359425</v>
+        <v>2.836758477971046</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.427971758277522</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.2266781903961288</v>
       </c>
       <c r="J13">
-        <v>0.02215564665953096</v>
+        <v>0.4200020861215989</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.597320745691349</v>
       </c>
       <c r="M13">
-        <v>7.660584422360984</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.897734775169567</v>
+        <v>1.016503549851137</v>
       </c>
       <c r="O13">
-        <v>8.076643233251559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4391848921945893</v>
+        <v>3.527773305344681</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4600582130825615</v>
+        <v>0.248676518776449</v>
       </c>
       <c r="E14">
-        <v>0.1072468964610493</v>
+        <v>0.3005175551506838</v>
       </c>
       <c r="F14">
-        <v>9.05943661151727</v>
+        <v>2.300092251825191</v>
       </c>
       <c r="G14">
-        <v>0.0006374218582735125</v>
+        <v>2.783470669245105</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.404409024821774</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.2289328059544253</v>
       </c>
       <c r="J14">
-        <v>0.02254948130294387</v>
+        <v>0.4138827451174478</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>2.549241880054069</v>
       </c>
       <c r="M14">
-        <v>7.492287504268376</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.88039550290469</v>
+        <v>1.015480413018892</v>
       </c>
       <c r="O14">
-        <v>7.876842011785072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.434341943034056</v>
+        <v>3.488707761619253</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4530200999865883</v>
+        <v>0.2462184350868171</v>
       </c>
       <c r="E15">
-        <v>0.1061028366800016</v>
+        <v>0.2977255739935813</v>
       </c>
       <c r="F15">
-        <v>8.922924898791649</v>
+        <v>2.276098897907232</v>
       </c>
       <c r="G15">
-        <v>0.0006400240640838715</v>
+        <v>2.751020018564276</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.39007063690164</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.2303486739248797</v>
       </c>
       <c r="J15">
-        <v>0.0227916395983101</v>
+        <v>0.4101414362884412</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>2.519865276122687</v>
       </c>
       <c r="M15">
-        <v>7.390319567374945</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.869811116709741</v>
+        <v>1.014885679396727</v>
       </c>
       <c r="O15">
-        <v>7.756510848189635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4067175221169919</v>
+        <v>3.265800620567461</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.41422538208964</v>
+        <v>0.2322656289010467</v>
       </c>
       <c r="E16">
-        <v>0.09974292567001442</v>
+        <v>0.2818235055232776</v>
       </c>
       <c r="F16">
-        <v>8.172658166231059</v>
+        <v>2.140927611186086</v>
       </c>
       <c r="G16">
-        <v>0.0006546633196189422</v>
+        <v>2.567813681398746</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.309279804074322</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.2389789309404833</v>
       </c>
       <c r="J16">
-        <v>0.02419398547622897</v>
+        <v>0.3888001317069154</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>2.35257248321409</v>
       </c>
       <c r="M16">
-        <v>6.821155300436374</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.809710278197201</v>
+        <v>1.011955964583905</v>
       </c>
       <c r="O16">
-        <v>7.094878101000234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3898760760290401</v>
+        <v>3.129850904646275</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3916016437386531</v>
+        <v>0.223814523453953</v>
       </c>
       <c r="E17">
-        <v>0.09598980076997066</v>
+        <v>0.2721471552927497</v>
       </c>
       <c r="F17">
-        <v>7.737208762996715</v>
+        <v>2.059954798445474</v>
       </c>
       <c r="G17">
-        <v>0.0006634449931794226</v>
+        <v>2.457723205870508</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.260871642301851</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.2447157069615002</v>
       </c>
       <c r="J17">
-        <v>0.02506777590630804</v>
+        <v>0.3757875669652435</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>2.250812886293204</v>
       </c>
       <c r="M17">
-        <v>6.483679655061763</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.773327999164678</v>
+        <v>1.010573506940815</v>
       </c>
       <c r="O17">
-        <v>6.710609617062744</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3802245842404233</v>
+        <v>3.051925623893567</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3789543035945115</v>
+        <v>0.2189895560700563</v>
       </c>
       <c r="E18">
-        <v>0.09387669736813464</v>
+        <v>0.2666075944540509</v>
       </c>
       <c r="F18">
-        <v>7.494581754502491</v>
+        <v>2.014051102951058</v>
       </c>
       <c r="G18">
-        <v>0.0006684380489531043</v>
+        <v>2.395187823668266</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.233424766747248</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2481708885820133</v>
       </c>
       <c r="J18">
-        <v>0.02557546003109756</v>
+        <v>0.3683292080377925</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>2.192576322904301</v>
       </c>
       <c r="M18">
-        <v>6.293235306590361</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.752577768763643</v>
+        <v>1.009926156431206</v>
       </c>
       <c r="O18">
-        <v>6.49640389509338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3769625150615354</v>
+        <v>3.0255856109315</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3747293947395036</v>
+        <v>0.2173617098885074</v>
       </c>
       <c r="E19">
-        <v>0.09316833943164582</v>
+        <v>0.2647361905582954</v>
       </c>
       <c r="F19">
-        <v>7.413671377041709</v>
+        <v>1.998619657109231</v>
       </c>
       <c r="G19">
-        <v>0.0006701199161943609</v>
+        <v>2.374143952883571</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1.224197236488351</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2493668256604487</v>
       </c>
       <c r="J19">
-        <v>0.02574824074795501</v>
+        <v>0.365808140189543</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2.172906320155107</v>
       </c>
       <c r="M19">
-        <v>6.229331061034799</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.74558194822626</v>
+        <v>1.009731933381374</v>
       </c>
       <c r="O19">
-        <v>6.424954859854807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3916651551840573</v>
+        <v>3.144294592133633</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3939708311649213</v>
+        <v>0.2247103577260958</v>
       </c>
       <c r="E20">
-        <v>0.09638442852244467</v>
+        <v>0.2731744606084519</v>
       </c>
       <c r="F20">
-        <v>7.782726385461757</v>
+        <v>2.068504152128412</v>
       </c>
       <c r="G20">
-        <v>0.0006625164733061433</v>
+        <v>2.469359900087113</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.265983155579363</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.2440887653912505</v>
       </c>
       <c r="J20">
-        <v>0.02497423407117338</v>
+        <v>0.3771700048583</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2.261614480566379</v>
       </c>
       <c r="M20">
-        <v>6.5192126039409</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.777182667398876</v>
+        <v>1.010705272659564</v>
       </c>
       <c r="O20">
-        <v>6.750787353293902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4415096377964858</v>
+        <v>3.546524206885238</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4634635642804028</v>
+        <v>0.2498577545115097</v>
       </c>
       <c r="E21">
-        <v>0.1077994089856809</v>
+        <v>0.301858232526115</v>
       </c>
       <c r="F21">
-        <v>9.125524670557269</v>
+        <v>2.311640661675355</v>
       </c>
       <c r="G21">
-        <v>0.0006361684861224248</v>
+        <v>2.799082689284603</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.411310108695119</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.2282632644782758</v>
       </c>
       <c r="J21">
-        <v>0.02243361142176603</v>
+        <v>0.4156786724896335</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2.563348410039254</v>
       </c>
       <c r="M21">
-        <v>7.541482047621059</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.885480871344811</v>
+        <v>1.01577424307105</v>
       </c>
       <c r="O21">
-        <v>7.935091395843301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.474479987008948</v>
+        <v>3.812321096151209</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.5138037917816263</v>
+        <v>0.2667018602035682</v>
       </c>
       <c r="E22">
-        <v>0.1158921110302913</v>
+        <v>0.320904378470324</v>
       </c>
       <c r="F22">
-        <v>10.10478959627417</v>
+        <v>2.477552680141258</v>
       </c>
       <c r="G22">
-        <v>0.0006180550227875732</v>
+        <v>3.022900263398128</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.510440609791772</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.2194608972621914</v>
       </c>
       <c r="J22">
-        <v>0.02081489247922619</v>
+        <v>0.4411493311863808</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>2.763747171685708</v>
       </c>
       <c r="M22">
-        <v>8.257912608892468</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.957880951994809</v>
+        <v>1.020505162459401</v>
       </c>
       <c r="O22">
-        <v>8.797846338775514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4568424465407759</v>
+        <v>3.670166511682055</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.486380949057164</v>
+        <v>0.2576697138930086</v>
       </c>
       <c r="E23">
-        <v>0.1115006347132486</v>
+        <v>0.3107080809856768</v>
       </c>
       <c r="F23">
-        <v>9.570854240465621</v>
+        <v>2.388306612363465</v>
       </c>
       <c r="G23">
-        <v>0.0006278277411221698</v>
+        <v>2.902613597362318</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.457120481034877</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.224009895082677</v>
       </c>
       <c r="J23">
-        <v>0.02167525912731527</v>
+        <v>0.4275237120311459</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2.656467078428193</v>
       </c>
       <c r="M23">
-        <v>7.870143756348511</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.919090316167285</v>
+        <v>1.017845224963921</v>
       </c>
       <c r="O23">
-        <v>8.327515811424007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.390856217113452</v>
+        <v>3.137763877590544</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.392898617792909</v>
+        <v>0.2243052470652884</v>
       </c>
       <c r="E24">
-        <v>0.09620588042694678</v>
+        <v>0.2727099433852302</v>
       </c>
       <c r="F24">
-        <v>7.762124126593619</v>
+        <v>2.064636979993992</v>
       </c>
       <c r="G24">
-        <v>0.0006629364268449881</v>
+        <v>2.464096606503176</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.263671052128728</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.2443717182117489</v>
       </c>
       <c r="J24">
-        <v>0.02501650769859509</v>
+        <v>0.3765449346018812</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>2.256730256311897</v>
       </c>
       <c r="M24">
-        <v>6.503137170226609</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.77543945430628</v>
+        <v>1.010645243222086</v>
       </c>
       <c r="O24">
-        <v>6.73260234548161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3210025030473531</v>
+        <v>2.573549333946801</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3057523381597207</v>
+        <v>0.1896513933022135</v>
       </c>
       <c r="E25">
-        <v>0.08141796288048653</v>
+        <v>0.2326895331840291</v>
       </c>
       <c r="F25">
-        <v>6.104761619116488</v>
+        <v>1.740651182565742</v>
       </c>
       <c r="G25">
-        <v>0.0006986598660555304</v>
+        <v>2.020543740006843</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1.069879875053147</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.2722108256419631</v>
       </c>
       <c r="J25">
-        <v>0.02881590738850193</v>
+        <v>0.3225257507006347</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.836489064296273</v>
       </c>
       <c r="M25">
-        <v>5.165816945623618</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.62714359291013</v>
+        <v>1.008480910435907</v>
       </c>
       <c r="O25">
-        <v>5.267745354174707</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.164329471966653</v>
+        <v>1.356646523565985</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1648892395157873</v>
+        <v>0.1336308149434444</v>
       </c>
       <c r="E2">
-        <v>0.2037512714225223</v>
+        <v>0.144697372703579</v>
       </c>
       <c r="F2">
-        <v>1.518948188504979</v>
+        <v>1.883631521800524</v>
       </c>
       <c r="G2">
-        <v>1.713234656481632</v>
+        <v>1.420285920779151</v>
       </c>
       <c r="H2">
-        <v>0.9371463560683253</v>
+        <v>1.235672159033498</v>
       </c>
       <c r="I2">
-        <v>0.2970476529321857</v>
+        <v>0.9187264827654467</v>
       </c>
       <c r="J2">
-        <v>0.2832697865480611</v>
+        <v>0.187217379661881</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.533757671870831</v>
+        <v>0.7559114855183964</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.011221031926368</v>
+        <v>1.450459894863499</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.889819420995053</v>
+        <v>1.281849286799741</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1484145126914811</v>
+        <v>0.1285500666958228</v>
       </c>
       <c r="E3">
-        <v>0.1843442603598646</v>
+        <v>0.1386925272860324</v>
       </c>
       <c r="F3">
-        <v>1.377162668043141</v>
+        <v>1.865972900885978</v>
       </c>
       <c r="G3">
-        <v>1.514410002308068</v>
+        <v>1.383708604102424</v>
       </c>
       <c r="H3">
-        <v>0.852190530092173</v>
+        <v>1.225468251151653</v>
       </c>
       <c r="I3">
-        <v>0.316274512269981</v>
+        <v>0.9328546247175584</v>
       </c>
       <c r="J3">
-        <v>0.2568585545752882</v>
+        <v>0.1790023011326483</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.33161492187088</v>
+        <v>0.7018566950308696</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.015566456290827</v>
+        <v>1.455169515965252</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.722356421613881</v>
+        <v>1.236305839650015</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1384041170929109</v>
+        <v>0.1253930487628878</v>
       </c>
       <c r="E4">
-        <v>0.1724939501399732</v>
+        <v>0.1349733344247781</v>
       </c>
       <c r="F4">
-        <v>1.293685038039357</v>
+        <v>1.856423180995932</v>
       </c>
       <c r="G4">
-        <v>1.396236725879788</v>
+        <v>1.362359394279622</v>
       </c>
       <c r="H4">
-        <v>0.8021411069024111</v>
+        <v>1.219993312181543</v>
       </c>
       <c r="I4">
-        <v>0.3291682203459416</v>
+        <v>0.9420785232702276</v>
       </c>
       <c r="J4">
-        <v>0.2407003985226268</v>
+        <v>0.1739229841589847</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.208656516709482</v>
+        <v>0.6689017199970522</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.019397746892821</v>
+        <v>1.45863204963095</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.654346893254285</v>
+        <v>1.217843633096976</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1343451107080753</v>
+        <v>0.1240970260618823</v>
       </c>
       <c r="E5">
-        <v>0.1676767148107317</v>
+        <v>0.133449614835758</v>
       </c>
       <c r="F5">
-        <v>1.260486426416648</v>
+        <v>1.852855594420348</v>
       </c>
       <c r="G5">
-        <v>1.34896064677352</v>
+        <v>1.353936824234495</v>
       </c>
       <c r="H5">
-        <v>0.7822294541120698</v>
+        <v>1.217960396098505</v>
       </c>
       <c r="I5">
-        <v>0.3346832864238269</v>
+        <v>0.9459752036682616</v>
       </c>
       <c r="J5">
-        <v>0.2341257135307586</v>
+        <v>0.1718442954342905</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.158796917099437</v>
+        <v>0.6555314892683271</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.021242671847688</v>
+        <v>1.460186956898418</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.643066914387589</v>
+        <v>1.214783892253962</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.133672174009952</v>
+        <v>0.1238812449632434</v>
       </c>
       <c r="E6">
-        <v>0.166877405254489</v>
+        <v>0.133196111384418</v>
       </c>
       <c r="F6">
-        <v>1.255021052299583</v>
+        <v>1.852282737246384</v>
       </c>
       <c r="G6">
-        <v>1.341160845008005</v>
+        <v>1.352554972068162</v>
       </c>
       <c r="H6">
-        <v>0.7789510421280568</v>
+        <v>1.217634784385211</v>
       </c>
       <c r="I6">
-        <v>0.3356144479176546</v>
+        <v>0.9466305647522439</v>
       </c>
       <c r="J6">
-        <v>0.2330344579674914</v>
+        <v>0.1714985986650603</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.150531458439417</v>
+        <v>0.6533149514719696</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.021565904201339</v>
+        <v>1.460453849893497</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.721438329024352</v>
+        <v>1.23605645736518</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1383493013662545</v>
+        <v>0.1253756087960909</v>
       </c>
       <c r="E7">
-        <v>0.1724289410221154</v>
+        <v>0.1349528179078767</v>
       </c>
       <c r="F7">
-        <v>1.293234095427223</v>
+        <v>1.85637375682947</v>
       </c>
       <c r="G7">
-        <v>1.395595707750772</v>
+        <v>1.362244683416662</v>
       </c>
       <c r="H7">
-        <v>0.8018706724076878</v>
+        <v>1.219965093952595</v>
       </c>
       <c r="I7">
-        <v>0.3292415590152586</v>
+        <v>0.9421305173502255</v>
       </c>
       <c r="J7">
-        <v>0.2406116959744367</v>
+        <v>0.1738949859259833</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.207983148691795</v>
+        <v>0.6687211645628963</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.019421490989927</v>
+        <v>1.458652436541328</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.069427337908394</v>
+        <v>1.330777632046875</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1591830512835557</v>
+        <v>0.1318866754996506</v>
       </c>
       <c r="E8">
-        <v>0.1970431573866591</v>
+        <v>0.1426335680910427</v>
       </c>
       <c r="F8">
-        <v>1.469267010167073</v>
+        <v>1.877273862804913</v>
       </c>
       <c r="G8">
-        <v>1.643805483567292</v>
+        <v>1.40744284438901</v>
       </c>
       <c r="H8">
-        <v>0.9073849877446207</v>
+        <v>1.23198947781421</v>
       </c>
       <c r="I8">
-        <v>0.3034431626843705</v>
+        <v>0.9234837535339757</v>
       </c>
       <c r="J8">
-        <v>0.2741480175835918</v>
+        <v>0.1843921482146129</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.463790639337162</v>
+        <v>0.7372246982644981</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.012472399613671</v>
+        <v>1.451965514126186</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.762489959077527</v>
+        <v>1.519527337756642</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2011836220695784</v>
+        <v>0.1443631300921311</v>
       </c>
       <c r="E9">
-        <v>0.2460699972028308</v>
+        <v>0.1574417876633376</v>
       </c>
       <c r="F9">
-        <v>1.846874359240118</v>
+        <v>1.92856969965564</v>
       </c>
       <c r="G9">
-        <v>2.166587281266658</v>
+        <v>1.504956355389822</v>
       </c>
       <c r="H9">
-        <v>1.133437467643148</v>
+        <v>1.261868497774003</v>
       </c>
       <c r="I9">
-        <v>0.2621145802004392</v>
+        <v>0.8912845181170113</v>
       </c>
       <c r="J9">
-        <v>0.3406225678020149</v>
+        <v>0.2046971311774968</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.976841643039364</v>
+        <v>0.8734259198713517</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.008506262447909</v>
+        <v>1.443366862261371</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.281351593089369</v>
+        <v>1.660004228970308</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2332351032654998</v>
+        <v>0.1533596293290316</v>
       </c>
       <c r="E10">
-        <v>0.2829313847094994</v>
+        <v>0.1681701240975713</v>
       </c>
       <c r="F10">
-        <v>2.150261263750622</v>
+        <v>1.9726240045689</v>
       </c>
       <c r="G10">
-        <v>2.580486484308352</v>
+        <v>1.582130046315541</v>
       </c>
       <c r="H10">
-        <v>1.314859190599577</v>
+        <v>1.287704968963112</v>
       </c>
       <c r="I10">
-        <v>0.2383459021440757</v>
+        <v>0.8703026817499797</v>
       </c>
       <c r="J10">
-        <v>0.3902887180263974</v>
+        <v>0.2194454447633092</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.36422552837692</v>
+        <v>0.9746451909499001</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.012134072049221</v>
+        <v>1.439783515511266</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.520298877592836</v>
+        <v>1.724297514326111</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.248205910352624</v>
+        <v>0.1574172224438826</v>
       </c>
       <c r="E11">
-        <v>0.2999832413904642</v>
+        <v>0.1730186817611497</v>
       </c>
       <c r="F11">
-        <v>2.295494630588678</v>
+        <v>1.994066267473073</v>
       </c>
       <c r="G11">
-        <v>2.777253990725569</v>
+        <v>1.618465275304885</v>
       </c>
       <c r="H11">
-        <v>1.401661543615006</v>
+        <v>1.300312039324723</v>
       </c>
       <c r="I11">
-        <v>0.2292015111046481</v>
+        <v>0.8613410875453198</v>
       </c>
       <c r="J11">
-        <v>0.4131668862163735</v>
+        <v>0.2261182685991372</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.543619896552343</v>
+        <v>1.02094666603054</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.015364795368939</v>
+        <v>1.43874349981931</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.611276352136372</v>
+        <v>1.748699023034135</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2539439089502054</v>
+        <v>0.1589488274364896</v>
       </c>
       <c r="E12">
-        <v>0.3064908575390533</v>
+        <v>0.1748501733481049</v>
       </c>
       <c r="F12">
-        <v>2.351679401609729</v>
+        <v>2.002388823569021</v>
       </c>
       <c r="G12">
-        <v>2.853175536650042</v>
+        <v>1.632403080041996</v>
       </c>
       <c r="H12">
-        <v>1.435235301700601</v>
+        <v>1.305209538741735</v>
       </c>
       <c r="I12">
-        <v>0.2260009317835596</v>
+        <v>0.8580316749139563</v>
       </c>
       <c r="J12">
-        <v>0.4218813446363896</v>
+        <v>0.2286398725797341</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.612093201662304</v>
+        <v>1.038516786327278</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.016830148688356</v>
+        <v>1.438434227485885</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.591659506838482</v>
+        <v>1.743441289438238</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2527048415763744</v>
+        <v>0.1586191858427952</v>
       </c>
       <c r="E13">
-        <v>0.3050869123371811</v>
+        <v>0.1744559309357641</v>
       </c>
       <c r="F13">
-        <v>2.339523584274033</v>
+        <v>2.000587370635472</v>
       </c>
       <c r="G13">
-        <v>2.836758477971046</v>
+        <v>1.629393359596577</v>
       </c>
       <c r="H13">
-        <v>1.427971758277522</v>
+        <v>1.304149272049841</v>
       </c>
       <c r="I13">
-        <v>0.2266781903961288</v>
+        <v>0.8587406689170685</v>
       </c>
       <c r="J13">
-        <v>0.4200020861215989</v>
+        <v>0.2280970340784876</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.597320745691349</v>
+        <v>1.03473111330166</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.016503549851137</v>
+        <v>1.438497078573036</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.527773305344681</v>
+        <v>1.72630394375949</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.248676518776449</v>
+        <v>0.1575433264287369</v>
       </c>
       <c r="E14">
-        <v>0.3005175551506838</v>
+        <v>0.1731694507679507</v>
       </c>
       <c r="F14">
-        <v>2.300092251825191</v>
+        <v>1.994746896708889</v>
       </c>
       <c r="G14">
-        <v>2.783470669245105</v>
+        <v>1.619608360377612</v>
       </c>
       <c r="H14">
-        <v>1.404409024821774</v>
+        <v>1.300712480980195</v>
       </c>
       <c r="I14">
-        <v>0.2289328059544253</v>
+        <v>0.861067132028225</v>
       </c>
       <c r="J14">
-        <v>0.4138827451174478</v>
+        <v>0.2263258278859723</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.549241880054069</v>
+        <v>1.022391434291876</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.015480413018892</v>
+        <v>1.438716362746973</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.488707761619253</v>
+        <v>1.715813962853701</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2462184350868171</v>
+        <v>0.1568836943525156</v>
       </c>
       <c r="E15">
-        <v>0.2977255739935813</v>
+        <v>0.1723808524238564</v>
       </c>
       <c r="F15">
-        <v>2.276098897907232</v>
+        <v>1.991195890983747</v>
       </c>
       <c r="G15">
-        <v>2.751020018564276</v>
+        <v>1.613638057415898</v>
       </c>
       <c r="H15">
-        <v>1.39007063690164</v>
+        <v>1.298623447755233</v>
       </c>
       <c r="I15">
-        <v>0.2303486739248797</v>
+        <v>0.8625031252180513</v>
       </c>
       <c r="J15">
-        <v>0.4101414362884412</v>
+        <v>0.2252402282601906</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.519865276122687</v>
+        <v>1.014837808543263</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.014885679396727</v>
+        <v>1.438861684220882</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.265800620567461</v>
+        <v>1.655810266994649</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2322656289010467</v>
+        <v>0.1530937619474884</v>
       </c>
       <c r="E16">
-        <v>0.2818235055232776</v>
+        <v>0.1678526211828881</v>
       </c>
       <c r="F16">
-        <v>2.140927611186086</v>
+        <v>1.971251016886953</v>
       </c>
       <c r="G16">
-        <v>2.567813681398746</v>
+        <v>1.57978032664343</v>
       </c>
       <c r="H16">
-        <v>1.309279804074322</v>
+        <v>1.286898308543158</v>
       </c>
       <c r="I16">
-        <v>0.2389789309404833</v>
+        <v>0.8709001023933887</v>
       </c>
       <c r="J16">
-        <v>0.3888001317069154</v>
+        <v>0.2190086273474918</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.35257248321409</v>
+        <v>0.9716244295196645</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.011955964583905</v>
+        <v>1.43986333146448</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.129850904646275</v>
+        <v>1.619099029427161</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.223814523453953</v>
+        <v>0.1507598848340876</v>
       </c>
       <c r="E17">
-        <v>0.2721471552927497</v>
+        <v>0.1650665652186589</v>
       </c>
       <c r="F17">
-        <v>2.059954798445474</v>
+        <v>1.959375399064427</v>
       </c>
       <c r="G17">
-        <v>2.457723205870508</v>
+        <v>1.559325622953111</v>
       </c>
       <c r="H17">
-        <v>1.260871642301851</v>
+        <v>1.279924509082292</v>
       </c>
       <c r="I17">
-        <v>0.2447157069615002</v>
+        <v>0.8762009415352559</v>
       </c>
       <c r="J17">
-        <v>0.3757875669652435</v>
+        <v>0.2151764296862382</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.250812886293204</v>
+        <v>0.9451799950439295</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.010573506940815</v>
+        <v>1.44062872910385</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.051925623893567</v>
+        <v>1.598020430216934</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2189895560700563</v>
+        <v>0.1494142032537411</v>
       </c>
       <c r="E18">
-        <v>0.2666075944540509</v>
+        <v>0.1634611033557576</v>
       </c>
       <c r="F18">
-        <v>2.014051102951058</v>
+        <v>1.952676719355296</v>
       </c>
       <c r="G18">
-        <v>2.395187823668266</v>
+        <v>1.547676145895224</v>
       </c>
       <c r="H18">
-        <v>1.233424766747248</v>
+        <v>1.27599369870353</v>
       </c>
       <c r="I18">
-        <v>0.2481708885820133</v>
+        <v>0.8793047150593409</v>
       </c>
       <c r="J18">
-        <v>0.3683292080377925</v>
+        <v>0.2129688402352485</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.192576322904301</v>
+        <v>0.9299939873330345</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.009926156431206</v>
+        <v>1.441124522298821</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.0255856109315</v>
+        <v>1.59088991820613</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2173617098885074</v>
+        <v>0.1489580089780276</v>
       </c>
       <c r="E19">
-        <v>0.2647361905582954</v>
+        <v>0.1629170062729131</v>
       </c>
       <c r="F19">
-        <v>1.998619657109231</v>
+        <v>1.950431270445364</v>
       </c>
       <c r="G19">
-        <v>2.374143952883571</v>
+        <v>1.543751621105798</v>
       </c>
       <c r="H19">
-        <v>1.224197236488351</v>
+        <v>1.27467657078472</v>
       </c>
       <c r="I19">
-        <v>0.2493668256604487</v>
+        <v>0.8803650147205886</v>
       </c>
       <c r="J19">
-        <v>0.365808140189543</v>
+        <v>0.2122208036959847</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.172906320155107</v>
+        <v>0.9248564139637381</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.009731933381374</v>
+        <v>1.441301940318866</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.144294592133633</v>
+        <v>1.623003208776936</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2247103577260958</v>
+        <v>0.1510086704930131</v>
       </c>
       <c r="E20">
-        <v>0.2731744606084519</v>
+        <v>0.1653634555586052</v>
       </c>
       <c r="F20">
-        <v>2.068504152128412</v>
+        <v>1.960625922549468</v>
       </c>
       <c r="G20">
-        <v>2.469359900087113</v>
+        <v>1.561491091581757</v>
       </c>
       <c r="H20">
-        <v>1.265983155579363</v>
+        <v>1.280658562709789</v>
       </c>
       <c r="I20">
-        <v>0.2440887653912505</v>
+        <v>0.8756309771048514</v>
       </c>
       <c r="J20">
-        <v>0.3771700048583</v>
+        <v>0.2155847269274886</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.261614480566379</v>
+        <v>0.9479925534860172</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.010705272659564</v>
+        <v>1.440541503455762</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.546524206885238</v>
+        <v>1.731336111770304</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.2498577545115097</v>
+        <v>0.157859464996136</v>
       </c>
       <c r="E21">
-        <v>0.301858232526115</v>
+        <v>0.17354744452728</v>
       </c>
       <c r="F21">
-        <v>2.311640661675355</v>
+        <v>1.996456870368661</v>
       </c>
       <c r="G21">
-        <v>2.799082689284603</v>
+        <v>1.622477594688547</v>
       </c>
       <c r="H21">
-        <v>1.411310108695119</v>
+        <v>1.301718593257192</v>
       </c>
       <c r="I21">
-        <v>0.2282632644782758</v>
+        <v>0.8603815073042611</v>
       </c>
       <c r="J21">
-        <v>0.4156786724896335</v>
+        <v>0.226846216830765</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.563348410039254</v>
+        <v>1.026014900331802</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.01577424307105</v>
+        <v>1.438649661039037</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.812321096151209</v>
+        <v>1.802458271187049</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2667018602035682</v>
+        <v>0.1623082443639134</v>
       </c>
       <c r="E22">
-        <v>0.320904378470324</v>
+        <v>0.1788696335542994</v>
       </c>
       <c r="F22">
-        <v>2.477552680141258</v>
+        <v>2.021057351851368</v>
       </c>
       <c r="G22">
-        <v>3.022900263398128</v>
+        <v>1.663376736651458</v>
       </c>
       <c r="H22">
-        <v>1.510440609791772</v>
+        <v>1.31620257351733</v>
       </c>
       <c r="I22">
-        <v>0.2194608972621914</v>
+        <v>0.8509057173384171</v>
       </c>
       <c r="J22">
-        <v>0.4411493311863808</v>
+        <v>0.2341756371730952</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.763747171685708</v>
+        <v>1.077221220135613</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.020505162459401</v>
+        <v>1.437905978829278</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.670166511682055</v>
+        <v>1.764470049651891</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2576697138930086</v>
+        <v>0.1599364284056151</v>
       </c>
       <c r="E23">
-        <v>0.3107080809856768</v>
+        <v>0.1760314998350552</v>
       </c>
       <c r="F23">
-        <v>2.388306612363465</v>
+        <v>2.007818954745588</v>
       </c>
       <c r="G23">
-        <v>2.902613597362318</v>
+        <v>1.641452255858297</v>
       </c>
       <c r="H23">
-        <v>1.457120481034877</v>
+        <v>1.308406089880975</v>
       </c>
       <c r="I23">
-        <v>0.224009895082677</v>
+        <v>0.8559181356417547</v>
       </c>
       <c r="J23">
-        <v>0.4275237120311459</v>
+        <v>0.2302666002979663</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.656467078428193</v>
+        <v>1.04987187457715</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.017845224963921</v>
+        <v>1.438257903626081</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.137763877590544</v>
+        <v>1.621238044556549</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2243052470652884</v>
+        <v>0.1508962066667436</v>
       </c>
       <c r="E24">
-        <v>0.2727099433852302</v>
+        <v>0.1652292430282074</v>
       </c>
       <c r="F24">
-        <v>2.064636979993992</v>
+        <v>1.960060159884023</v>
       </c>
       <c r="G24">
-        <v>2.464096606503176</v>
+        <v>1.560511740086412</v>
       </c>
       <c r="H24">
-        <v>1.263671052128728</v>
+        <v>1.280326452544557</v>
       </c>
       <c r="I24">
-        <v>0.2443717182117489</v>
+        <v>0.8758884828382776</v>
       </c>
       <c r="J24">
-        <v>0.3765449346018812</v>
+        <v>0.2154001494719608</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.256730256311897</v>
+        <v>0.9467209420763822</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.010645243222086</v>
+        <v>1.440580764481879</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.573549333946801</v>
+        <v>1.468147065852634</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1896513933022135</v>
+        <v>0.141018338340885</v>
       </c>
       <c r="E25">
-        <v>0.2326895331840291</v>
+        <v>0.1534625845385094</v>
       </c>
       <c r="F25">
-        <v>1.740651182565742</v>
+        <v>1.91358060174511</v>
       </c>
       <c r="G25">
-        <v>2.020543740006843</v>
+        <v>1.477613664473381</v>
       </c>
       <c r="H25">
-        <v>1.069879875053147</v>
+        <v>1.253106522638802</v>
       </c>
       <c r="I25">
-        <v>0.2722108256419631</v>
+        <v>0.8995264432972618</v>
       </c>
       <c r="J25">
-        <v>0.3225257507006347</v>
+        <v>0.1992339747186946</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.836489064296273</v>
+        <v>0.8363786342017363</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.008480910435907</v>
+        <v>1.44521162885485</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.356646523565985</v>
+        <v>2.164329471966767</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1336308149434444</v>
+        <v>0.1648892395156878</v>
       </c>
       <c r="E2">
-        <v>0.144697372703579</v>
+        <v>0.2037512714225045</v>
       </c>
       <c r="F2">
-        <v>1.883631521800524</v>
+        <v>1.518948188504979</v>
       </c>
       <c r="G2">
-        <v>1.420285920779151</v>
+        <v>1.713234656481632</v>
       </c>
       <c r="H2">
-        <v>1.235672159033498</v>
+        <v>0.9371463560683537</v>
       </c>
       <c r="I2">
-        <v>0.9187264827654467</v>
+        <v>0.2970476529321857</v>
       </c>
       <c r="J2">
-        <v>0.187217379661881</v>
+        <v>0.2832697865479972</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.7559114855183964</v>
+        <v>1.533757671870774</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.450459894863499</v>
+        <v>1.011221031926425</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.281849286799741</v>
+        <v>1.889819420995195</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1285500666958228</v>
+        <v>0.1484145126914811</v>
       </c>
       <c r="E3">
-        <v>0.1386925272860324</v>
+        <v>0.1843442603598682</v>
       </c>
       <c r="F3">
-        <v>1.865972900885978</v>
+        <v>1.377162668043169</v>
       </c>
       <c r="G3">
-        <v>1.383708604102424</v>
+        <v>1.51441000230804</v>
       </c>
       <c r="H3">
-        <v>1.225468251151653</v>
+        <v>0.852190530092173</v>
       </c>
       <c r="I3">
-        <v>0.9328546247175584</v>
+        <v>0.3162745122699953</v>
       </c>
       <c r="J3">
-        <v>0.1790023011326483</v>
+        <v>0.2568585545751674</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.7018566950308696</v>
+        <v>1.331614921870994</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.455169515965252</v>
+        <v>1.015566456290884</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.236305839650015</v>
+        <v>1.722356421613824</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1253930487628878</v>
+        <v>0.1384041170929109</v>
       </c>
       <c r="E4">
-        <v>0.1349733344247781</v>
+        <v>0.1724939501399909</v>
       </c>
       <c r="F4">
-        <v>1.856423180995932</v>
+        <v>1.293685038039357</v>
       </c>
       <c r="G4">
-        <v>1.362359394279622</v>
+        <v>1.396236725879817</v>
       </c>
       <c r="H4">
-        <v>1.219993312181543</v>
+        <v>0.8021411069025248</v>
       </c>
       <c r="I4">
-        <v>0.9420785232702276</v>
+        <v>0.3291682203459274</v>
       </c>
       <c r="J4">
-        <v>0.1739229841589847</v>
+        <v>0.2407003985226481</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.6689017199970522</v>
+        <v>1.20865651670934</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.45863204963095</v>
+        <v>1.019397746892821</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.217843633096976</v>
+        <v>1.654346893254058</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1240970260618823</v>
+        <v>0.1343451107081464</v>
       </c>
       <c r="E5">
-        <v>0.133449614835758</v>
+        <v>0.1676767148107494</v>
       </c>
       <c r="F5">
-        <v>1.852855594420348</v>
+        <v>1.260486426416634</v>
       </c>
       <c r="G5">
-        <v>1.353936824234495</v>
+        <v>1.348960646773435</v>
       </c>
       <c r="H5">
-        <v>1.217960396098505</v>
+        <v>0.7822294541121835</v>
       </c>
       <c r="I5">
-        <v>0.9459752036682616</v>
+        <v>0.3346832864238145</v>
       </c>
       <c r="J5">
-        <v>0.1718442954342905</v>
+        <v>0.2341257135307018</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.6555314892683271</v>
+        <v>1.15879691709938</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.460186956898418</v>
+        <v>1.021242671847631</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.214783892253962</v>
+        <v>1.64306691438756</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1238812449632434</v>
+        <v>0.1336721740099946</v>
       </c>
       <c r="E6">
-        <v>0.133196111384418</v>
+        <v>0.1668774052544855</v>
       </c>
       <c r="F6">
-        <v>1.852282737246384</v>
+        <v>1.255021052299639</v>
       </c>
       <c r="G6">
-        <v>1.352554972068162</v>
+        <v>1.341160845007977</v>
       </c>
       <c r="H6">
-        <v>1.217634784385211</v>
+        <v>0.7789510421280852</v>
       </c>
       <c r="I6">
-        <v>0.9466305647522439</v>
+        <v>0.3356144479176812</v>
       </c>
       <c r="J6">
-        <v>0.1714985986650603</v>
+        <v>0.2330344579675838</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.6533149514719696</v>
+        <v>1.150531458439332</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.460453849893497</v>
+        <v>1.021565904201267</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.23605645736518</v>
+        <v>1.721438329024124</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1253756087960909</v>
+        <v>0.1383493013662616</v>
       </c>
       <c r="E7">
-        <v>0.1349528179078767</v>
+        <v>0.1724289410221331</v>
       </c>
       <c r="F7">
-        <v>1.85637375682947</v>
+        <v>1.293234095427238</v>
       </c>
       <c r="G7">
-        <v>1.362244683416662</v>
+        <v>1.395595707750829</v>
       </c>
       <c r="H7">
-        <v>1.219965093952595</v>
+        <v>0.8018706724076878</v>
       </c>
       <c r="I7">
-        <v>0.9421305173502255</v>
+        <v>0.3292415590152711</v>
       </c>
       <c r="J7">
-        <v>0.1738949859259833</v>
+        <v>0.2406116959744722</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.6687211645628963</v>
+        <v>1.20798314869171</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.458652436541328</v>
+        <v>1.019421490989963</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.330777632046875</v>
+        <v>2.069427337908451</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1318866754996506</v>
+        <v>0.1591830512836623</v>
       </c>
       <c r="E8">
-        <v>0.1426335680910427</v>
+        <v>0.1970431573866627</v>
       </c>
       <c r="F8">
-        <v>1.877273862804913</v>
+        <v>1.469267010167073</v>
       </c>
       <c r="G8">
-        <v>1.40744284438901</v>
+        <v>1.643805483567377</v>
       </c>
       <c r="H8">
-        <v>1.23198947781421</v>
+        <v>0.9073849877446207</v>
       </c>
       <c r="I8">
-        <v>0.9234837535339757</v>
+        <v>0.3034431626843563</v>
       </c>
       <c r="J8">
-        <v>0.1843921482146129</v>
+        <v>0.2741480175835775</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.7372246982644981</v>
+        <v>1.463790639337105</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.451965514126186</v>
+        <v>1.012472399613685</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.519527337756642</v>
+        <v>2.762489959077641</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1443631300921311</v>
+        <v>0.2011836220696779</v>
       </c>
       <c r="E9">
-        <v>0.1574417876633376</v>
+        <v>0.246069997202838</v>
       </c>
       <c r="F9">
-        <v>1.92856969965564</v>
+        <v>1.846874359240132</v>
       </c>
       <c r="G9">
-        <v>1.504956355389822</v>
+        <v>2.166587281266658</v>
       </c>
       <c r="H9">
-        <v>1.261868497774003</v>
+        <v>1.133437467643148</v>
       </c>
       <c r="I9">
-        <v>0.8912845181170113</v>
+        <v>0.262114580200425</v>
       </c>
       <c r="J9">
-        <v>0.2046971311774968</v>
+        <v>0.3406225678020576</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.8734259198713517</v>
+        <v>1.976841643039336</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.443366862261371</v>
+        <v>1.008506262447909</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.660004228970308</v>
+        <v>3.281351593089482</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1533596293290316</v>
+        <v>0.2332351032655993</v>
       </c>
       <c r="E10">
-        <v>0.1681701240975713</v>
+        <v>0.2829313847094994</v>
       </c>
       <c r="F10">
-        <v>1.9726240045689</v>
+        <v>2.150261263750622</v>
       </c>
       <c r="G10">
-        <v>1.582130046315541</v>
+        <v>2.580486484308238</v>
       </c>
       <c r="H10">
-        <v>1.287704968963112</v>
+        <v>1.314859190599662</v>
       </c>
       <c r="I10">
-        <v>0.8703026817499797</v>
+        <v>0.2383459021440864</v>
       </c>
       <c r="J10">
-        <v>0.2194454447633092</v>
+        <v>0.390288718026369</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.9746451909499001</v>
+        <v>2.364225528376949</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.439783515511266</v>
+        <v>1.01213407204915</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.724297514326111</v>
+        <v>3.520298877592836</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1574172224438826</v>
+        <v>0.2482059103525387</v>
       </c>
       <c r="E11">
-        <v>0.1730186817611497</v>
+        <v>0.2999832413904784</v>
       </c>
       <c r="F11">
-        <v>1.994066267473073</v>
+        <v>2.295494630588664</v>
       </c>
       <c r="G11">
-        <v>1.618465275304885</v>
+        <v>2.777253990725455</v>
       </c>
       <c r="H11">
-        <v>1.300312039324723</v>
+        <v>1.401661543615091</v>
       </c>
       <c r="I11">
-        <v>0.8613410875453198</v>
+        <v>0.2292015111046588</v>
       </c>
       <c r="J11">
-        <v>0.2261182685991372</v>
+        <v>0.4131668862163451</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.02094666603054</v>
+        <v>2.543619896552372</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.43874349981931</v>
+        <v>1.015364795368953</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.748699023034135</v>
+        <v>3.611276352136542</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1589488274364896</v>
+        <v>0.2539439089502054</v>
       </c>
       <c r="E12">
-        <v>0.1748501733481049</v>
+        <v>0.3064908575390461</v>
       </c>
       <c r="F12">
-        <v>2.002388823569021</v>
+        <v>2.351679401609729</v>
       </c>
       <c r="G12">
-        <v>1.632403080041996</v>
+        <v>2.85317553665007</v>
       </c>
       <c r="H12">
-        <v>1.305209538741735</v>
+        <v>1.435235301700601</v>
       </c>
       <c r="I12">
-        <v>0.8580316749139563</v>
+        <v>0.2260009317835703</v>
       </c>
       <c r="J12">
-        <v>0.2286398725797341</v>
+        <v>0.4218813446363896</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.038516786327278</v>
+        <v>2.612093201662361</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.438434227485885</v>
+        <v>1.016830148688371</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.743441289438238</v>
+        <v>3.591659506838539</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1586191858427952</v>
+        <v>0.2527048415762607</v>
       </c>
       <c r="E13">
-        <v>0.1744559309357641</v>
+        <v>0.3050869123371527</v>
       </c>
       <c r="F13">
-        <v>2.000587370635472</v>
+        <v>2.339523584274033</v>
       </c>
       <c r="G13">
-        <v>1.629393359596577</v>
+        <v>2.836758477971074</v>
       </c>
       <c r="H13">
-        <v>1.304149272049841</v>
+        <v>1.427971758277522</v>
       </c>
       <c r="I13">
-        <v>0.8587406689170685</v>
+        <v>0.2266781903961395</v>
       </c>
       <c r="J13">
-        <v>0.2280970340784876</v>
+        <v>0.42000208612167</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.03473111330166</v>
+        <v>2.597320745691349</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.438497078573036</v>
+        <v>1.016503549851194</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.72630394375949</v>
+        <v>3.527773305344738</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1575433264287369</v>
+        <v>0.248676518776449</v>
       </c>
       <c r="E14">
-        <v>0.1731694507679507</v>
+        <v>0.3005175551507122</v>
       </c>
       <c r="F14">
-        <v>1.994746896708889</v>
+        <v>2.300092251825205</v>
       </c>
       <c r="G14">
-        <v>1.619608360377612</v>
+        <v>2.783470669245105</v>
       </c>
       <c r="H14">
-        <v>1.300712480980195</v>
+        <v>1.404409024821774</v>
       </c>
       <c r="I14">
-        <v>0.861067132028225</v>
+        <v>0.2289328059544253</v>
       </c>
       <c r="J14">
-        <v>0.2263258278859723</v>
+        <v>0.4138827451175757</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.022391434291876</v>
+        <v>2.549241880054069</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.438716362746973</v>
+        <v>1.015480413018906</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.715813962853701</v>
+        <v>3.488707761619253</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.1568836943525156</v>
+        <v>0.2462184350871581</v>
       </c>
       <c r="E15">
-        <v>0.1723808524238564</v>
+        <v>0.2977255739935813</v>
       </c>
       <c r="F15">
-        <v>1.991195890983747</v>
+        <v>2.276098897907218</v>
       </c>
       <c r="G15">
-        <v>1.613638057415898</v>
+        <v>2.751020018564191</v>
       </c>
       <c r="H15">
-        <v>1.298623447755233</v>
+        <v>1.390070636901612</v>
       </c>
       <c r="I15">
-        <v>0.8625031252180513</v>
+        <v>0.2303486739248619</v>
       </c>
       <c r="J15">
-        <v>0.2252402282601906</v>
+        <v>0.410141436288356</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.014837808543263</v>
+        <v>2.519865276122687</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.438861684220882</v>
+        <v>1.014885679396727</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.655810266994649</v>
+        <v>3.265800620567234</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.1530937619474884</v>
+        <v>0.2322656289009188</v>
       </c>
       <c r="E16">
-        <v>0.1678526211828881</v>
+        <v>0.281823505523306</v>
       </c>
       <c r="F16">
-        <v>1.971251016886953</v>
+        <v>2.1409276111861</v>
       </c>
       <c r="G16">
-        <v>1.57978032664343</v>
+        <v>2.567813681398718</v>
       </c>
       <c r="H16">
-        <v>1.286898308543158</v>
+        <v>1.309279804074407</v>
       </c>
       <c r="I16">
-        <v>0.8709001023933887</v>
+        <v>0.2389789309404797</v>
       </c>
       <c r="J16">
-        <v>0.2190086273474918</v>
+        <v>0.3888001317069012</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.9716244295196645</v>
+        <v>2.35257248321409</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.43986333146448</v>
+        <v>1.01195596458389</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.619099029427161</v>
+        <v>3.129850904646332</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1507598848340876</v>
+        <v>0.2238145234540383</v>
       </c>
       <c r="E17">
-        <v>0.1650665652186589</v>
+        <v>0.2721471552927426</v>
       </c>
       <c r="F17">
-        <v>1.959375399064427</v>
+        <v>2.059954798445474</v>
       </c>
       <c r="G17">
-        <v>1.559325622953111</v>
+        <v>2.457723205870622</v>
       </c>
       <c r="H17">
-        <v>1.279924509082292</v>
+        <v>1.260871642301851</v>
       </c>
       <c r="I17">
-        <v>0.8762009415352559</v>
+        <v>0.2447157069615109</v>
       </c>
       <c r="J17">
-        <v>0.2151764296862382</v>
+        <v>0.3757875669652861</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.9451799950439295</v>
+        <v>2.250812886293318</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.44062872910385</v>
+        <v>1.010573506940815</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.598020430216934</v>
+        <v>3.051925623893567</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1494142032537411</v>
+        <v>0.2189895560700705</v>
       </c>
       <c r="E18">
-        <v>0.1634611033557576</v>
+        <v>0.2666075944540793</v>
       </c>
       <c r="F18">
-        <v>1.952676719355296</v>
+        <v>2.014051102951072</v>
       </c>
       <c r="G18">
-        <v>1.547676145895224</v>
+        <v>2.395187823668465</v>
       </c>
       <c r="H18">
-        <v>1.27599369870353</v>
+        <v>1.233424766747106</v>
       </c>
       <c r="I18">
-        <v>0.8793047150593409</v>
+        <v>0.2481708885820169</v>
       </c>
       <c r="J18">
-        <v>0.2129688402352485</v>
+        <v>0.3683292080377925</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.9299939873330345</v>
+        <v>2.192576322904358</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.441124522298821</v>
+        <v>1.009926156431192</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.59088991820613</v>
+        <v>3.025585610931387</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1489580089780276</v>
+        <v>0.2173617098883938</v>
       </c>
       <c r="E19">
-        <v>0.1629170062729131</v>
+        <v>0.2647361905582741</v>
       </c>
       <c r="F19">
-        <v>1.950431270445364</v>
+        <v>1.998619657109231</v>
       </c>
       <c r="G19">
-        <v>1.543751621105798</v>
+        <v>2.3741439528836</v>
       </c>
       <c r="H19">
-        <v>1.27467657078472</v>
+        <v>1.224197236488379</v>
       </c>
       <c r="I19">
-        <v>0.8803650147205886</v>
+        <v>0.2493668256604273</v>
       </c>
       <c r="J19">
-        <v>0.2122208036959847</v>
+        <v>0.3658081401895146</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.9248564139637381</v>
+        <v>2.172906320155221</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.441301940318866</v>
+        <v>1.00973193338136</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.623003208776936</v>
+        <v>3.144294592133633</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1510086704930131</v>
+        <v>0.2247103577260816</v>
       </c>
       <c r="E20">
-        <v>0.1653634555586052</v>
+        <v>0.2731744606084376</v>
       </c>
       <c r="F20">
-        <v>1.960625922549468</v>
+        <v>2.06850415212844</v>
       </c>
       <c r="G20">
-        <v>1.561491091581757</v>
+        <v>2.469359900087142</v>
       </c>
       <c r="H20">
-        <v>1.280658562709789</v>
+        <v>1.265983155579391</v>
       </c>
       <c r="I20">
-        <v>0.8756309771048514</v>
+        <v>0.2440887653912505</v>
       </c>
       <c r="J20">
-        <v>0.2155847269274886</v>
+        <v>0.3771700048583142</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.9479925534860172</v>
+        <v>2.261614480566465</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.440541503455762</v>
+        <v>1.010705272659564</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.731336111770304</v>
+        <v>3.546524206885294</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.157859464996136</v>
+        <v>0.249857754511396</v>
       </c>
       <c r="E21">
-        <v>0.17354744452728</v>
+        <v>0.3018582325261292</v>
       </c>
       <c r="F21">
-        <v>1.996456870368661</v>
+        <v>2.311640661675355</v>
       </c>
       <c r="G21">
-        <v>1.622477594688547</v>
+        <v>2.799082689284631</v>
       </c>
       <c r="H21">
-        <v>1.301718593257192</v>
+        <v>1.411310108695091</v>
       </c>
       <c r="I21">
-        <v>0.8603815073042611</v>
+        <v>0.2282632644782936</v>
       </c>
       <c r="J21">
-        <v>0.226846216830765</v>
+        <v>0.4156786724895909</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.026014900331802</v>
+        <v>2.563348410039254</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.438649661039037</v>
+        <v>1.015774243071036</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.802458271187049</v>
+        <v>3.812321096151152</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1623082443639134</v>
+        <v>0.2667018602034688</v>
       </c>
       <c r="E22">
-        <v>0.1788696335542994</v>
+        <v>0.3209043784703312</v>
       </c>
       <c r="F22">
-        <v>2.021057351851368</v>
+        <v>2.477552680141287</v>
       </c>
       <c r="G22">
-        <v>1.663376736651458</v>
+        <v>3.022900263398213</v>
       </c>
       <c r="H22">
-        <v>1.31620257351733</v>
+        <v>1.510440609791658</v>
       </c>
       <c r="I22">
-        <v>0.8509057173384171</v>
+        <v>0.219460897262195</v>
       </c>
       <c r="J22">
-        <v>0.2341756371730952</v>
+        <v>0.4411493311862813</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.077221220135613</v>
+        <v>2.763747171685679</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.437905978829278</v>
+        <v>1.020505162459401</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.764470049651891</v>
+        <v>3.670166511682112</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1599364284056151</v>
+        <v>0.2576697138928949</v>
       </c>
       <c r="E23">
-        <v>0.1760314998350552</v>
+        <v>0.3107080809856626</v>
       </c>
       <c r="F23">
-        <v>2.007818954745588</v>
+        <v>2.388306612363451</v>
       </c>
       <c r="G23">
-        <v>1.641452255858297</v>
+        <v>2.90261359736229</v>
       </c>
       <c r="H23">
-        <v>1.308406089880975</v>
+        <v>1.457120481034877</v>
       </c>
       <c r="I23">
-        <v>0.8559181356417547</v>
+        <v>0.2240098950826521</v>
       </c>
       <c r="J23">
-        <v>0.2302666002979663</v>
+        <v>0.4275237120311459</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.04987187457715</v>
+        <v>2.656467078428193</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.438257903626081</v>
+        <v>1.01784522496385</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.621238044556549</v>
+        <v>3.137763877590658</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1508962066667436</v>
+        <v>0.2243052470650753</v>
       </c>
       <c r="E24">
-        <v>0.1652292430282074</v>
+        <v>0.2727099433852302</v>
       </c>
       <c r="F24">
-        <v>1.960060159884023</v>
+        <v>2.064636979993992</v>
       </c>
       <c r="G24">
-        <v>1.560511740086412</v>
+        <v>2.464096606503318</v>
       </c>
       <c r="H24">
-        <v>1.280326452544557</v>
+        <v>1.263671052128615</v>
       </c>
       <c r="I24">
-        <v>0.8758884828382776</v>
+        <v>0.2443717182117453</v>
       </c>
       <c r="J24">
-        <v>0.2154001494719608</v>
+        <v>0.3765449346019381</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.9467209420763822</v>
+        <v>2.256730256311954</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.440580764481879</v>
+        <v>1.010645243222143</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.468147065852634</v>
+        <v>2.573549333946914</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.141018338340885</v>
+        <v>0.1896513933021993</v>
       </c>
       <c r="E25">
-        <v>0.1534625845385094</v>
+        <v>0.2326895331840291</v>
       </c>
       <c r="F25">
-        <v>1.91358060174511</v>
+        <v>1.740651182565728</v>
       </c>
       <c r="G25">
-        <v>1.477613664473381</v>
+        <v>2.020543740006929</v>
       </c>
       <c r="H25">
-        <v>1.253106522638802</v>
+        <v>1.069879875053147</v>
       </c>
       <c r="I25">
-        <v>0.8995264432972618</v>
+        <v>0.2722108256419631</v>
       </c>
       <c r="J25">
-        <v>0.1992339747186946</v>
+        <v>0.3225257507006773</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.8363786342017363</v>
+        <v>1.836489064296302</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.44521162885485</v>
+        <v>1.008480910435907</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.164329471966767</v>
+        <v>0.4292145676208747</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1648892395156878</v>
+        <v>0.127098084169873</v>
       </c>
       <c r="E2">
-        <v>0.2037512714225045</v>
+        <v>0.109191907510068</v>
       </c>
       <c r="F2">
-        <v>1.518948188504979</v>
+        <v>0.8605636167969664</v>
       </c>
       <c r="G2">
-        <v>1.713234656481632</v>
+        <v>0.6561612069054803</v>
       </c>
       <c r="H2">
-        <v>0.9371463560683537</v>
+        <v>0.0051704325759237</v>
       </c>
       <c r="I2">
-        <v>0.2970476529321857</v>
+        <v>0.006678931806482158</v>
       </c>
       <c r="J2">
-        <v>0.2832697865479972</v>
+        <v>0.3991859289608612</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.3672827738752069</v>
       </c>
       <c r="L2">
-        <v>1.533757671870774</v>
+        <v>0.1246235925395212</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.011221031926425</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>1.466108348906914</v>
+      </c>
+      <c r="P2">
+        <v>1.982570883001614</v>
+      </c>
+      <c r="Q2">
+        <v>2.178170559295722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.889819420995195</v>
+        <v>0.3741829716459222</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1484145126914811</v>
+        <v>0.1232209236828012</v>
       </c>
       <c r="E3">
-        <v>0.1843442603598682</v>
+        <v>0.1059145675131994</v>
       </c>
       <c r="F3">
-        <v>1.377162668043169</v>
+        <v>0.7805780490922984</v>
       </c>
       <c r="G3">
-        <v>1.51441000230804</v>
+        <v>0.5811605806592155</v>
       </c>
       <c r="H3">
-        <v>0.852190530092173</v>
+        <v>0.003196300145483111</v>
       </c>
       <c r="I3">
-        <v>0.3162745122699953</v>
+        <v>0.007441111040019432</v>
       </c>
       <c r="J3">
-        <v>0.2568585545751674</v>
+        <v>0.367519370223448</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.357248832866901</v>
       </c>
       <c r="L3">
-        <v>1.331614921870994</v>
+        <v>0.1205549414181153</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.015566456290884</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>1.279255931934685</v>
+      </c>
+      <c r="P3">
+        <v>1.840548737006003</v>
+      </c>
+      <c r="Q3">
+        <v>1.952571735578005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.722356421613824</v>
+        <v>0.3398226866669916</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1384041170929109</v>
+        <v>0.1208596941470077</v>
       </c>
       <c r="E4">
-        <v>0.1724939501399909</v>
+        <v>0.1038749214938779</v>
       </c>
       <c r="F4">
-        <v>1.293685038039357</v>
+        <v>0.7321228868746488</v>
       </c>
       <c r="G4">
-        <v>1.396236725879817</v>
+        <v>0.5356288925908643</v>
       </c>
       <c r="H4">
-        <v>0.8021411069025248</v>
+        <v>0.002187476397378707</v>
       </c>
       <c r="I4">
-        <v>0.3291682203459274</v>
+        <v>0.007976884617861391</v>
       </c>
       <c r="J4">
-        <v>0.2407003985226481</v>
+        <v>0.3484194507756797</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3516367810003942</v>
       </c>
       <c r="L4">
-        <v>1.20865651670934</v>
+        <v>0.1179968992671867</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.019397746892821</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.164647254789159</v>
+      </c>
+      <c r="P4">
+        <v>1.754721224394586</v>
+      </c>
+      <c r="Q4">
+        <v>1.815862196543975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.654346893254058</v>
+        <v>0.3245690914155546</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1343451107081464</v>
+        <v>0.1198754899535146</v>
       </c>
       <c r="E5">
-        <v>0.1676767148107494</v>
+        <v>0.1030042900294887</v>
       </c>
       <c r="F5">
-        <v>1.260486426416634</v>
+        <v>0.7124001011463577</v>
       </c>
       <c r="G5">
-        <v>1.348960646773435</v>
+        <v>0.5171106454177021</v>
       </c>
       <c r="H5">
-        <v>0.7822294541121835</v>
+        <v>0.001824063234017181</v>
       </c>
       <c r="I5">
-        <v>0.3346832864238145</v>
+        <v>0.008295156340309529</v>
       </c>
       <c r="J5">
-        <v>0.2341257135307018</v>
+        <v>0.3406742396851854</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3501136483479037</v>
       </c>
       <c r="L5">
-        <v>1.15879691709938</v>
+        <v>0.1168997731389609</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.021242671847631</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.118955569440843</v>
+      </c>
+      <c r="P5">
+        <v>1.722270769095985</v>
+      </c>
+      <c r="Q5">
+        <v>1.760306217342389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.64306691438756</v>
+        <v>0.3206691462656863</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1336721740099946</v>
+        <v>0.1196802966796362</v>
       </c>
       <c r="E6">
-        <v>0.1668774052544855</v>
+        <v>0.1028202890178527</v>
       </c>
       <c r="F6">
-        <v>1.255021052299639</v>
+        <v>0.7089761821205016</v>
       </c>
       <c r="G6">
-        <v>1.341160845007977</v>
+        <v>0.5139425792428796</v>
       </c>
       <c r="H6">
-        <v>0.7789510421280852</v>
+        <v>0.001766686166169928</v>
       </c>
       <c r="I6">
-        <v>0.3356144479176812</v>
+        <v>0.008458140305739548</v>
       </c>
       <c r="J6">
-        <v>0.2330344579675838</v>
+        <v>0.3393408297075808</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3506428561267505</v>
       </c>
       <c r="L6">
-        <v>1.150531458439332</v>
+        <v>0.1166693042295428</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.021565904201267</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.112580561852454</v>
+      </c>
+      <c r="P6">
+        <v>1.719588917637665</v>
+      </c>
+      <c r="Q6">
+        <v>1.750784602592603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.721438329024124</v>
+        <v>0.3358927077826337</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1383493013662616</v>
+        <v>0.1207592769305563</v>
       </c>
       <c r="E7">
-        <v>0.1724289410221331</v>
+        <v>0.1037571231819125</v>
       </c>
       <c r="F7">
-        <v>1.293234095427238</v>
+        <v>0.7314258558959352</v>
       </c>
       <c r="G7">
-        <v>1.395595707750829</v>
+        <v>0.5351060029825589</v>
       </c>
       <c r="H7">
-        <v>0.8018706724076878</v>
+        <v>0.002183025484291945</v>
       </c>
       <c r="I7">
-        <v>0.3292415590152711</v>
+        <v>0.008263941638204209</v>
       </c>
       <c r="J7">
-        <v>0.2406116959744722</v>
+        <v>0.3481727893352371</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3537401230713364</v>
       </c>
       <c r="L7">
-        <v>1.20798314869171</v>
+        <v>0.1178533304544942</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.019421490989963</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.16734194423826</v>
+      </c>
+      <c r="P7">
+        <v>1.761656833199879</v>
+      </c>
+      <c r="Q7">
+        <v>1.814236372837371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.069427337908451</v>
+        <v>0.4053908194795355</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1591830512836623</v>
+        <v>0.1256426202482643</v>
       </c>
       <c r="E8">
-        <v>0.1970431573866627</v>
+        <v>0.1079279950959791</v>
       </c>
       <c r="F8">
-        <v>1.469267010167073</v>
+        <v>0.8322729925797603</v>
       </c>
       <c r="G8">
-        <v>1.643805483567377</v>
+        <v>0.6298253990578644</v>
       </c>
       <c r="H8">
-        <v>0.9073849877446207</v>
+        <v>0.00444669220877647</v>
       </c>
       <c r="I8">
-        <v>0.3034431626843563</v>
+        <v>0.007272477834889379</v>
       </c>
       <c r="J8">
-        <v>0.2741480175835775</v>
+        <v>0.3880057797835121</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3665765815965258</v>
       </c>
       <c r="L8">
-        <v>1.463790639337105</v>
+        <v>0.1230635340114752</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.012472399613685</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>1.406053612105893</v>
+      </c>
+      <c r="P8">
+        <v>1.943242981741122</v>
+      </c>
+      <c r="Q8">
+        <v>2.098830744174336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.762489959077641</v>
+        <v>0.5437019142148927</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2011836220696779</v>
+        <v>0.1355599166023964</v>
       </c>
       <c r="E9">
-        <v>0.246069997202838</v>
+        <v>0.1161124660443953</v>
       </c>
       <c r="F9">
-        <v>1.846874359240132</v>
+        <v>1.036635537255719</v>
       </c>
       <c r="G9">
-        <v>2.166587281266658</v>
+        <v>0.8207825414486081</v>
       </c>
       <c r="H9">
-        <v>1.133437467643148</v>
+        <v>0.01066534733239573</v>
       </c>
       <c r="I9">
-        <v>0.262114580200425</v>
+        <v>0.00544629467860247</v>
       </c>
       <c r="J9">
-        <v>0.3406225678020576</v>
+        <v>0.4693702123458081</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.3923548116293532</v>
       </c>
       <c r="L9">
-        <v>1.976841643039336</v>
+        <v>0.1330789378397945</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.008506262447909</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>1.869472746538221</v>
+      </c>
+      <c r="P9">
+        <v>2.297242009093083</v>
+      </c>
+      <c r="Q9">
+        <v>2.674697145693955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.281351593089482</v>
+        <v>0.6412776130279383</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.2332351032655993</v>
+        <v>0.1404360835794165</v>
       </c>
       <c r="E10">
-        <v>0.2829313847094994</v>
+        <v>0.1192012140399488</v>
       </c>
       <c r="F10">
-        <v>2.150261263750622</v>
+        <v>1.175916585916411</v>
       </c>
       <c r="G10">
-        <v>2.580486484308238</v>
+        <v>0.9547391694937915</v>
       </c>
       <c r="H10">
-        <v>1.314859190599662</v>
+        <v>0.0163839152340346</v>
       </c>
       <c r="I10">
-        <v>0.2383459021440864</v>
+        <v>0.004625440422164395</v>
       </c>
       <c r="J10">
-        <v>0.390288718026369</v>
+        <v>0.526411717487548</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4168273540320584</v>
       </c>
       <c r="L10">
-        <v>2.364225528376949</v>
+        <v>0.1371014588063808</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.01213407204915</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>2.187731437802285</v>
+      </c>
+      <c r="P10">
+        <v>2.577786930651399</v>
+      </c>
+      <c r="Q10">
+        <v>3.078565852139718</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.520298877592836</v>
+        <v>0.6873330677622107</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.2482059103525387</v>
+        <v>0.1226009980706166</v>
       </c>
       <c r="E11">
-        <v>0.2999832413904784</v>
+        <v>0.1021652591705857</v>
       </c>
       <c r="F11">
-        <v>2.295494630588664</v>
+        <v>1.109458770856023</v>
       </c>
       <c r="G11">
-        <v>2.777253990725455</v>
+        <v>0.9297174754457416</v>
       </c>
       <c r="H11">
-        <v>1.401661543615091</v>
+        <v>0.03495196944885492</v>
       </c>
       <c r="I11">
-        <v>0.2292015111046588</v>
+        <v>0.00484950590365596</v>
       </c>
       <c r="J11">
-        <v>0.4131668862163451</v>
+        <v>0.5101031416731416</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4454950035546545</v>
       </c>
       <c r="L11">
-        <v>2.543619896552372</v>
+        <v>0.1240352035757626</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.015364795368953</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2.120828460638137</v>
+      </c>
+      <c r="P11">
+        <v>2.800145530982036</v>
+      </c>
+      <c r="Q11">
+        <v>2.991566167901084</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.611276352136542</v>
+        <v>0.7123291251119781</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.2539439089502054</v>
+        <v>0.1092898710867551</v>
       </c>
       <c r="E12">
-        <v>0.3064908575390461</v>
+        <v>0.09550663955737537</v>
       </c>
       <c r="F12">
-        <v>2.351679401609729</v>
+        <v>1.025712908976899</v>
       </c>
       <c r="G12">
-        <v>2.85317553665007</v>
+        <v>0.8806465587357053</v>
       </c>
       <c r="H12">
-        <v>1.435235301700601</v>
+        <v>0.07293963152395833</v>
       </c>
       <c r="I12">
-        <v>0.2260009317835703</v>
+        <v>0.004734939744512445</v>
       </c>
       <c r="J12">
-        <v>0.4218813446363896</v>
+        <v>0.4842634716660683</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.461197057236383</v>
       </c>
       <c r="L12">
-        <v>2.612093201662361</v>
+        <v>0.1285124416797814</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.016830148688371</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.99305330391158</v>
+      </c>
+      <c r="P12">
+        <v>2.918690358034212</v>
+      </c>
+      <c r="Q12">
+        <v>2.833511375868483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.591659506838539</v>
+        <v>0.7165046337613319</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.2527048415762607</v>
+        <v>0.09855491614009537</v>
       </c>
       <c r="E13">
-        <v>0.3050869123371527</v>
+        <v>0.09612113772677411</v>
       </c>
       <c r="F13">
-        <v>2.339523584274033</v>
+        <v>0.9234881327867015</v>
       </c>
       <c r="G13">
-        <v>2.836758477971074</v>
+        <v>0.8099547424754405</v>
       </c>
       <c r="H13">
-        <v>1.427971758277522</v>
+        <v>0.1273894232558774</v>
       </c>
       <c r="I13">
-        <v>0.2266781903961395</v>
+        <v>0.004758658765978474</v>
       </c>
       <c r="J13">
-        <v>0.42000208612167</v>
+        <v>0.4494145326265482</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.471048760885985</v>
       </c>
       <c r="L13">
-        <v>2.597320745691349</v>
+        <v>0.1461285171448203</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.016503549851194</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>1.817300252504253</v>
+      </c>
+      <c r="P13">
+        <v>2.974743161844657</v>
+      </c>
+      <c r="Q13">
+        <v>2.610672530604973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.527773305344738</v>
+        <v>0.7087880878988528</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.248676518776449</v>
+        <v>0.09258694210527452</v>
       </c>
       <c r="E14">
-        <v>0.3005175551507122</v>
+        <v>0.1008437877476016</v>
       </c>
       <c r="F14">
-        <v>2.300092251825205</v>
+        <v>0.8443940255585574</v>
       </c>
       <c r="G14">
-        <v>2.783470669245105</v>
+        <v>0.7511722828463121</v>
       </c>
       <c r="H14">
-        <v>1.404409024821774</v>
+        <v>0.1756150254487636</v>
       </c>
       <c r="I14">
-        <v>0.2289328059544253</v>
+        <v>0.004925974436446268</v>
       </c>
       <c r="J14">
-        <v>0.4138827451175757</v>
+        <v>0.4211474400732556</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.4760323994528335</v>
       </c>
       <c r="L14">
-        <v>2.549241880054069</v>
+        <v>0.1662881698666538</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.015480413018906</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>1.674870746864599</v>
+      </c>
+      <c r="P14">
+        <v>2.988024749021662</v>
+      </c>
+      <c r="Q14">
+        <v>2.426825447655517</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.488707761619253</v>
+        <v>0.7007670628255198</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.2462184350871581</v>
+        <v>0.09133349248639533</v>
       </c>
       <c r="E15">
-        <v>0.2977255739935813</v>
+        <v>0.1024554793037744</v>
       </c>
       <c r="F15">
-        <v>2.276098897907218</v>
+        <v>0.8210752357461644</v>
       </c>
       <c r="G15">
-        <v>2.751020018564191</v>
+        <v>0.7322793695389862</v>
       </c>
       <c r="H15">
-        <v>1.390070636901612</v>
+        <v>0.1876473897032014</v>
       </c>
       <c r="I15">
-        <v>0.2303486739248619</v>
+        <v>0.005123435316724212</v>
       </c>
       <c r="J15">
-        <v>0.410141436288356</v>
+        <v>0.4123781192588041</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.4769623292325775</v>
       </c>
       <c r="L15">
-        <v>2.519865276122687</v>
+        <v>0.1718531412365181</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.014885679396727</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>1.631272747273471</v>
+      </c>
+      <c r="P15">
+        <v>2.980850909628998</v>
+      </c>
+      <c r="Q15">
+        <v>2.368381429730647</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.265800620567234</v>
+        <v>0.6554487054263518</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2322656289009188</v>
+        <v>0.0915696747123107</v>
       </c>
       <c r="E16">
-        <v>0.281823505523306</v>
+        <v>0.1008435730061095</v>
       </c>
       <c r="F16">
-        <v>2.1409276111861</v>
+        <v>0.7836295136877993</v>
       </c>
       <c r="G16">
-        <v>2.567813681398718</v>
+        <v>0.6900405443933835</v>
       </c>
       <c r="H16">
-        <v>1.309279804074407</v>
+        <v>0.1726437041374425</v>
       </c>
       <c r="I16">
-        <v>0.2389789309404797</v>
+        <v>0.005614017891047318</v>
       </c>
       <c r="J16">
-        <v>0.3888001317069012</v>
+        <v>0.3952894960241338</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.4649211314272961</v>
       </c>
       <c r="L16">
-        <v>2.35257248321409</v>
+        <v>0.165873927052786</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.01195596458389</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>1.536948681711422</v>
+      </c>
+      <c r="P16">
+        <v>2.8495238169412</v>
+      </c>
+      <c r="Q16">
+        <v>2.24286376885388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.129850904646332</v>
+        <v>0.6246838163970097</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2238145234540383</v>
+        <v>0.09465450709175904</v>
       </c>
       <c r="E17">
-        <v>0.2721471552927426</v>
+        <v>0.09640638048582684</v>
       </c>
       <c r="F17">
-        <v>2.059954798445474</v>
+        <v>0.7965083639612089</v>
       </c>
       <c r="G17">
-        <v>2.457723205870622</v>
+        <v>0.6887020925033056</v>
       </c>
       <c r="H17">
-        <v>1.260871642301851</v>
+        <v>0.1337308236463741</v>
       </c>
       <c r="I17">
-        <v>0.2447157069615109</v>
+        <v>0.00592895203496191</v>
       </c>
       <c r="J17">
-        <v>0.3757875669652861</v>
+        <v>0.3971585469997478</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.4532800361709732</v>
       </c>
       <c r="L17">
-        <v>2.250812886293318</v>
+        <v>0.1492954234143049</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.010573506940815</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>1.539474040602627</v>
+      </c>
+      <c r="P17">
+        <v>2.742734911441318</v>
+      </c>
+      <c r="Q17">
+        <v>2.243815503225846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.051925623893567</v>
+        <v>0.6064796545576598</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2189895560700705</v>
+        <v>0.1019092017215613</v>
       </c>
       <c r="E18">
-        <v>0.2666075944540793</v>
+        <v>0.09298654582964261</v>
       </c>
       <c r="F18">
-        <v>2.014051102951072</v>
+        <v>0.8553755399113783</v>
       </c>
       <c r="G18">
-        <v>2.395187823668465</v>
+        <v>0.7227717241687941</v>
       </c>
       <c r="H18">
-        <v>1.233424766747106</v>
+        <v>0.08079814511578576</v>
       </c>
       <c r="I18">
-        <v>0.2481708885820169</v>
+        <v>0.005811411140087763</v>
       </c>
       <c r="J18">
-        <v>0.3683292080377925</v>
+        <v>0.4156405101765728</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.4385598104982051</v>
       </c>
       <c r="L18">
-        <v>2.192576322904358</v>
+        <v>0.1293352276017892</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.009926156431192</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>1.624515086751543</v>
+      </c>
+      <c r="P18">
+        <v>2.638367904394869</v>
+      </c>
+      <c r="Q18">
+        <v>2.354665545840021</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.025585610931387</v>
+        <v>0.5925242696121416</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2173617098883938</v>
+        <v>0.1139263252891602</v>
       </c>
       <c r="E19">
-        <v>0.2647361905582741</v>
+        <v>0.09645266387004625</v>
       </c>
       <c r="F19">
-        <v>1.998619657109231</v>
+        <v>0.9485533963374877</v>
       </c>
       <c r="G19">
-        <v>2.3741439528836</v>
+        <v>0.7833798630704507</v>
       </c>
       <c r="H19">
-        <v>1.224197236488379</v>
+        <v>0.03660164362941032</v>
       </c>
       <c r="I19">
-        <v>0.2493668256604273</v>
+        <v>0.005949292281711926</v>
       </c>
       <c r="J19">
-        <v>0.3658081401895146</v>
+        <v>0.4462472239774371</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4273531935751862</v>
       </c>
       <c r="L19">
-        <v>2.172906320155221</v>
+        <v>0.1194616055884232</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.00973193338136</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.778726513239491</v>
+      </c>
+      <c r="P19">
+        <v>2.560360568458009</v>
+      </c>
+      <c r="Q19">
+        <v>2.547213908097604</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.144294592133633</v>
+        <v>0.6040929902466132</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.2247103577260816</v>
+        <v>0.1387760615188967</v>
       </c>
       <c r="E20">
-        <v>0.2731744606084376</v>
+        <v>0.1179548933851269</v>
       </c>
       <c r="F20">
-        <v>2.06850415212844</v>
+        <v>1.137079289320326</v>
       </c>
       <c r="G20">
-        <v>2.469359900087142</v>
+        <v>0.9180342284645491</v>
       </c>
       <c r="H20">
-        <v>1.265983155579391</v>
+        <v>0.01476176435429721</v>
       </c>
       <c r="I20">
-        <v>0.2440887653912505</v>
+        <v>0.005696887322500288</v>
       </c>
       <c r="J20">
-        <v>0.3771700048583142</v>
+        <v>0.510636507317713</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4173971686842179</v>
       </c>
       <c r="L20">
-        <v>2.261614480566465</v>
+        <v>0.1355365240755102</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.010705272659564</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>2.113493411551744</v>
+      </c>
+      <c r="P20">
+        <v>2.528331412209837</v>
+      </c>
+      <c r="Q20">
+        <v>2.967607797320682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.546524206885294</v>
+        <v>0.6789503739476288</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.249857754511396</v>
+        <v>0.1465566401292691</v>
       </c>
       <c r="E21">
-        <v>0.3018582325261292</v>
+        <v>0.1247424171208706</v>
       </c>
       <c r="F21">
-        <v>2.311640661675355</v>
+        <v>1.269334067414206</v>
       </c>
       <c r="G21">
-        <v>2.799082689284631</v>
+        <v>1.03790713447394</v>
       </c>
       <c r="H21">
-        <v>1.411310108695091</v>
+        <v>0.01994636679495432</v>
       </c>
       <c r="I21">
-        <v>0.2282632644782936</v>
+        <v>0.004988195837526632</v>
       </c>
       <c r="J21">
-        <v>0.4156786724895909</v>
+        <v>0.5629107487106779</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4334961823785406</v>
       </c>
       <c r="L21">
-        <v>2.563348410039254</v>
+        <v>0.1434277998049858</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.015774243071036</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>2.394851691591015</v>
+      </c>
+      <c r="P21">
+        <v>2.727462596720642</v>
+      </c>
+      <c r="Q21">
+        <v>3.331519325116005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.812321096151152</v>
+        <v>0.7326166743397664</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.2667018602034688</v>
+        <v>0.1505089838477076</v>
       </c>
       <c r="E22">
-        <v>0.3209043784703312</v>
+        <v>0.1278866392218294</v>
       </c>
       <c r="F22">
-        <v>2.477552680141287</v>
+        <v>1.349751559800993</v>
       </c>
       <c r="G22">
-        <v>3.022900263398213</v>
+        <v>1.11251694168584</v>
       </c>
       <c r="H22">
-        <v>1.510440609791658</v>
+        <v>0.02354843686022079</v>
       </c>
       <c r="I22">
-        <v>0.219460897262195</v>
+        <v>0.004252098203239463</v>
       </c>
       <c r="J22">
-        <v>0.4411493311862813</v>
+        <v>0.5953058068863015</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4423652999705681</v>
       </c>
       <c r="L22">
-        <v>2.763747171685679</v>
+        <v>0.1471681937496925</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.020505162459401</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>2.561999310387847</v>
+      </c>
+      <c r="P22">
+        <v>2.853572371044947</v>
+      </c>
+      <c r="Q22">
+        <v>3.557726413310661</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.670166511682112</v>
+        <v>0.7085047916536382</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.2576697138928949</v>
+        <v>0.1484939227182522</v>
       </c>
       <c r="E23">
-        <v>0.3107080809856626</v>
+        <v>0.1263287720872839</v>
       </c>
       <c r="F23">
-        <v>2.388306612363451</v>
+        <v>1.307218414348156</v>
       </c>
       <c r="G23">
-        <v>2.90261359736229</v>
+        <v>1.072915871016136</v>
       </c>
       <c r="H23">
-        <v>1.457120481034877</v>
+        <v>0.02159146560731662</v>
       </c>
       <c r="I23">
-        <v>0.2240098950826521</v>
+        <v>0.004301906539635247</v>
       </c>
       <c r="J23">
-        <v>0.4275237120311459</v>
+        <v>0.5781260747369572</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4348452594374308</v>
       </c>
       <c r="L23">
-        <v>2.656467078428193</v>
+        <v>0.1453205218542877</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.01784522496385</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>2.46879158257245</v>
+      </c>
+      <c r="P23">
+        <v>2.776814214181968</v>
+      </c>
+      <c r="Q23">
+        <v>3.437691968867341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.137763877590658</v>
+        <v>0.6089730047312401</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2243052470650753</v>
+        <v>0.1408049476770401</v>
       </c>
       <c r="E24">
-        <v>0.2727099433852302</v>
+        <v>0.1202565087372403</v>
       </c>
       <c r="F24">
-        <v>2.064636979993992</v>
+        <v>1.147660522906079</v>
       </c>
       <c r="G24">
-        <v>2.464096606503318</v>
+        <v>0.9244651322244692</v>
       </c>
       <c r="H24">
-        <v>1.263671052128615</v>
+        <v>0.01483970220054337</v>
       </c>
       <c r="I24">
-        <v>0.2443717182117453</v>
+        <v>0.005156723461151813</v>
       </c>
       <c r="J24">
-        <v>0.3765449346019381</v>
+        <v>0.5139161610513554</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4118286809958462</v>
       </c>
       <c r="L24">
-        <v>2.256730256311954</v>
+        <v>0.1380706981369926</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.010645243222143</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>2.12271138475829</v>
+      </c>
+      <c r="P24">
+        <v>2.503850027535691</v>
+      </c>
+      <c r="Q24">
+        <v>2.988103048520372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.573549333946914</v>
+        <v>0.4999907219218471</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1896513933021993</v>
+        <v>0.1326978334189448</v>
       </c>
       <c r="E25">
-        <v>0.2326895331840291</v>
+        <v>0.113724628105567</v>
       </c>
       <c r="F25">
-        <v>1.740651182565728</v>
+        <v>0.9798616901164792</v>
       </c>
       <c r="G25">
-        <v>2.020543740006929</v>
+        <v>0.7680374515234263</v>
       </c>
       <c r="H25">
-        <v>1.069879875053147</v>
+        <v>0.008770791969937325</v>
       </c>
       <c r="I25">
-        <v>0.2722108256419631</v>
+        <v>0.006365880697848603</v>
       </c>
       <c r="J25">
-        <v>0.3225257507006773</v>
+        <v>0.4467439479686277</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3889170979579006</v>
       </c>
       <c r="L25">
-        <v>1.836489064296302</v>
+        <v>0.1301800871564875</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.008480910435907</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.749965238602726</v>
+      </c>
+      <c r="P25">
+        <v>2.214061596242061</v>
+      </c>
+      <c r="Q25">
+        <v>2.515328870158385</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_10/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4292145676208747</v>
+        <v>0.532790270696978</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.127098084169873</v>
+        <v>0.1248013777314156</v>
       </c>
       <c r="E2">
-        <v>0.109191907510068</v>
+        <v>0.1081424915986293</v>
       </c>
       <c r="F2">
-        <v>0.8605636167969664</v>
+        <v>0.8768142236105518</v>
       </c>
       <c r="G2">
-        <v>0.6561612069054803</v>
+        <v>0.6517452645709625</v>
       </c>
       <c r="H2">
-        <v>0.0051704325759237</v>
+        <v>0.00469391084327675</v>
       </c>
       <c r="I2">
-        <v>0.006678931806482158</v>
+        <v>0.003717129133719688</v>
       </c>
       <c r="J2">
-        <v>0.3991859289608612</v>
+        <v>0.4581751408292121</v>
       </c>
       <c r="K2">
-        <v>0.3672827738752069</v>
+        <v>0.2931636659753352</v>
       </c>
       <c r="L2">
-        <v>0.1246235925395212</v>
+        <v>0.1181556657142355</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1062619674475442</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1238956223280674</v>
       </c>
       <c r="O2">
-        <v>1.466108348906914</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>1.982570883001614</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>2.178170559295722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>1.381125611917824</v>
+      </c>
+      <c r="R2">
+        <v>1.768369550184616</v>
+      </c>
+      <c r="S2">
+        <v>2.215591743355304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3741829716459222</v>
+        <v>0.4701152257194963</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1232209236828012</v>
+        <v>0.1210052230677121</v>
       </c>
       <c r="E3">
-        <v>0.1059145675131994</v>
+        <v>0.1048853216619943</v>
       </c>
       <c r="F3">
-        <v>0.7805780490922984</v>
+        <v>0.7962579155202576</v>
       </c>
       <c r="G3">
-        <v>0.5811605806592155</v>
+        <v>0.5753358226727556</v>
       </c>
       <c r="H3">
-        <v>0.003196300145483111</v>
+        <v>0.002858747189610877</v>
       </c>
       <c r="I3">
-        <v>0.007441111040019432</v>
+        <v>0.004156925507556863</v>
       </c>
       <c r="J3">
-        <v>0.367519370223448</v>
+        <v>0.4251811585882308</v>
       </c>
       <c r="K3">
-        <v>0.357248832866901</v>
+        <v>0.2861194243141405</v>
       </c>
       <c r="L3">
-        <v>0.1205549414181153</v>
+        <v>0.1126941367347456</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1083860225584488</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1198213989543273</v>
       </c>
       <c r="O3">
-        <v>1.279255931934685</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1.840548737006003</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.952571735578005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>1.200752499299327</v>
+      </c>
+      <c r="R3">
+        <v>1.639680324200356</v>
+      </c>
+      <c r="S3">
+        <v>1.989488425137637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3398226866669916</v>
+        <v>0.4308037526391075</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1208596941470077</v>
+        <v>0.1186947909532208</v>
       </c>
       <c r="E4">
-        <v>0.1038749214938779</v>
+        <v>0.1028564851795277</v>
       </c>
       <c r="F4">
-        <v>0.7321228868746488</v>
+        <v>0.7473899660793677</v>
       </c>
       <c r="G4">
-        <v>0.5356288925908643</v>
+        <v>0.5290125348424652</v>
       </c>
       <c r="H4">
-        <v>0.002187476397378707</v>
+        <v>0.001927757099099314</v>
       </c>
       <c r="I4">
-        <v>0.007976884617861391</v>
+        <v>0.004485919849440911</v>
       </c>
       <c r="J4">
-        <v>0.3484194507756797</v>
+        <v>0.4050777414127111</v>
       </c>
       <c r="K4">
-        <v>0.3516367810003942</v>
+        <v>0.2823415064755324</v>
       </c>
       <c r="L4">
-        <v>0.1179968992671867</v>
+        <v>0.1100750535137429</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1098688754053576</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.1172572965605561</v>
       </c>
       <c r="O4">
-        <v>1.164647254789159</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>1.754721224394586</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.815862196543975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>1.090254698422065</v>
+      </c>
+      <c r="R4">
+        <v>1.562266866943929</v>
+      </c>
+      <c r="S4">
+        <v>1.852286666023474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3245690914155546</v>
+        <v>0.4134459138937956</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1198754899535146</v>
+        <v>0.1177338861750812</v>
       </c>
       <c r="E5">
-        <v>0.1030042900294887</v>
+        <v>0.1019920564076582</v>
       </c>
       <c r="F5">
-        <v>0.7124001011463577</v>
+        <v>0.7274958611084088</v>
       </c>
       <c r="G5">
-        <v>0.5171106454177021</v>
+        <v>0.510196519534972</v>
       </c>
       <c r="H5">
-        <v>0.001824063234017181</v>
+        <v>0.001594310496415896</v>
       </c>
       <c r="I5">
-        <v>0.008295156340309529</v>
+        <v>0.004726833228532179</v>
       </c>
       <c r="J5">
-        <v>0.3406742396851854</v>
+        <v>0.3968817929548436</v>
       </c>
       <c r="K5">
-        <v>0.3501136483479037</v>
+        <v>0.2813636489331373</v>
       </c>
       <c r="L5">
-        <v>0.1168997731389609</v>
+        <v>0.1092621010400201</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1107635792204036</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.116158896975401</v>
       </c>
       <c r="O5">
-        <v>1.118955569440843</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1.722270769095985</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.760306217342389</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.0461479912722</v>
+      </c>
+      <c r="R5">
+        <v>1.532902372313274</v>
+      </c>
+      <c r="S5">
+        <v>1.79651119091676</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3206691462656863</v>
+        <v>0.4091664241705786</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1196802966796362</v>
+        <v>0.1175454065425896</v>
       </c>
       <c r="E6">
-        <v>0.1028202890178527</v>
+        <v>0.1018117064540132</v>
       </c>
       <c r="F6">
-        <v>0.7089761821205016</v>
+        <v>0.7240569734371149</v>
       </c>
       <c r="G6">
-        <v>0.5139425792428796</v>
+        <v>0.5069898663533507</v>
       </c>
       <c r="H6">
-        <v>0.001766686166169928</v>
+        <v>0.001541747715904096</v>
       </c>
       <c r="I6">
-        <v>0.008458140305739548</v>
+        <v>0.004889473253451015</v>
       </c>
       <c r="J6">
-        <v>0.3393408297075808</v>
+        <v>0.3954745433034503</v>
       </c>
       <c r="K6">
-        <v>0.3506428561267505</v>
+        <v>0.2817353230672524</v>
       </c>
       <c r="L6">
-        <v>0.1166693042295428</v>
+        <v>0.1092267200675625</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1112164686686832</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1159304041577371</v>
       </c>
       <c r="O6">
-        <v>1.112580561852454</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>1.719588917637665</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.750784602592603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.039885818728862</v>
+      </c>
+      <c r="R6">
+        <v>1.530243762695903</v>
+      </c>
+      <c r="S6">
+        <v>1.786979922772758</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3358927077826337</v>
+        <v>0.4268541589047459</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1207592769305563</v>
+        <v>0.118734255499966</v>
       </c>
       <c r="E7">
-        <v>0.1037571231819125</v>
+        <v>0.1027822261841216</v>
       </c>
       <c r="F7">
-        <v>0.7314258558959352</v>
+        <v>0.7453797482662026</v>
       </c>
       <c r="G7">
-        <v>0.5351060029825589</v>
+        <v>0.5326454397367257</v>
       </c>
       <c r="H7">
-        <v>0.002183025484291945</v>
+        <v>0.001919137084501421</v>
       </c>
       <c r="I7">
-        <v>0.008263941638204209</v>
+        <v>0.004804679694753844</v>
       </c>
       <c r="J7">
-        <v>0.3481727893352371</v>
+        <v>0.3981864596577367</v>
       </c>
       <c r="K7">
-        <v>0.3537401230713364</v>
+        <v>0.283820551615289</v>
       </c>
       <c r="L7">
-        <v>0.1178533304544942</v>
+        <v>0.1103458347004818</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1107060130336173</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1171155185802881</v>
       </c>
       <c r="O7">
-        <v>1.16734194423826</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1.761656833199879</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.814236372837371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.091481513292074</v>
+      </c>
+      <c r="R7">
+        <v>1.56821570598504</v>
+      </c>
+      <c r="S7">
+        <v>1.84608754198095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4053908194795355</v>
+        <v>0.506576201214898</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1256426202482643</v>
+        <v>0.1238284256819995</v>
       </c>
       <c r="E8">
-        <v>0.1079279950959791</v>
+        <v>0.1070206472517832</v>
       </c>
       <c r="F8">
-        <v>0.8322729925797603</v>
+        <v>0.8438760923792472</v>
       </c>
       <c r="G8">
-        <v>0.6298253990578644</v>
+        <v>0.6388374002642223</v>
       </c>
       <c r="H8">
-        <v>0.00444669220877647</v>
+        <v>0.003999652993106007</v>
       </c>
       <c r="I8">
-        <v>0.007272477834889379</v>
+        <v>0.004243940066460006</v>
       </c>
       <c r="J8">
-        <v>0.3880057797835121</v>
+        <v>0.4245897050105327</v>
       </c>
       <c r="K8">
-        <v>0.3665765815965258</v>
+        <v>0.2927688810449567</v>
       </c>
       <c r="L8">
-        <v>0.1230635340114752</v>
+        <v>0.1166601255697177</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1080128159135967</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1223333931416857</v>
       </c>
       <c r="O8">
-        <v>1.406053612105893</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>1.943242981741122</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2.098830744174336</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>1.319124666157819</v>
+      </c>
+      <c r="R8">
+        <v>1.732912253417226</v>
+      </c>
+      <c r="S8">
+        <v>2.120662092748034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5437019142148927</v>
+        <v>0.6626905879344918</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1355599166023964</v>
+        <v>0.1336713740091255</v>
       </c>
       <c r="E9">
-        <v>0.1161124660443953</v>
+        <v>0.1151777928722346</v>
       </c>
       <c r="F9">
-        <v>1.036635537255719</v>
+        <v>1.04791893711824</v>
       </c>
       <c r="G9">
-        <v>0.8207825414486081</v>
+        <v>0.8378012879649361</v>
       </c>
       <c r="H9">
-        <v>0.01066534733239573</v>
+        <v>0.009805017857564611</v>
       </c>
       <c r="I9">
-        <v>0.00544629467860247</v>
+        <v>0.003133723255739795</v>
       </c>
       <c r="J9">
-        <v>0.4693702123458081</v>
+        <v>0.5017265374462738</v>
       </c>
       <c r="K9">
-        <v>0.3923548116293532</v>
+        <v>0.3118771478008497</v>
       </c>
       <c r="L9">
-        <v>0.1330789378397945</v>
+        <v>0.1341322078523675</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1027921460942061</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1323441310430802</v>
       </c>
       <c r="O9">
-        <v>1.869472746538221</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>2.297242009093083</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>2.674697145693955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>1.766480498671427</v>
+      </c>
+      <c r="R9">
+        <v>2.05669901109772</v>
+      </c>
+      <c r="S9">
+        <v>2.69200112495065</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6412776130279383</v>
+        <v>0.7731311640332592</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1404360835794165</v>
+        <v>0.1392515133609677</v>
       </c>
       <c r="E10">
-        <v>0.1192012140399488</v>
+        <v>0.1183426679210857</v>
       </c>
       <c r="F10">
-        <v>1.175916585916411</v>
+        <v>1.178560069349274</v>
       </c>
       <c r="G10">
-        <v>0.9547391694937915</v>
+        <v>1.003273440320541</v>
       </c>
       <c r="H10">
-        <v>0.0163839152340346</v>
+        <v>0.01512184360682323</v>
       </c>
       <c r="I10">
-        <v>0.004625440422164395</v>
+        <v>0.002807115822996309</v>
       </c>
       <c r="J10">
-        <v>0.526411717487548</v>
+        <v>0.5166044304509967</v>
       </c>
       <c r="K10">
-        <v>0.4168273540320584</v>
+        <v>0.3308800359097184</v>
       </c>
       <c r="L10">
-        <v>0.1371014588063808</v>
+        <v>0.1513680938929092</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1006460444625041</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1361142982864045</v>
       </c>
       <c r="O10">
-        <v>2.187731437802285</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>2.577786930651399</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>3.078565852139718</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>2.067106508251342</v>
+      </c>
+      <c r="R10">
+        <v>2.315864940748668</v>
+      </c>
+      <c r="S10">
+        <v>3.063687085271368</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6873330677622107</v>
+        <v>0.8305840305241645</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1226009980706166</v>
+        <v>0.1222448563625136</v>
       </c>
       <c r="E11">
-        <v>0.1021652591705857</v>
+        <v>0.1002315649875962</v>
       </c>
       <c r="F11">
-        <v>1.109458770856023</v>
+        <v>1.095681958795851</v>
       </c>
       <c r="G11">
-        <v>0.9297174754457416</v>
+        <v>1.034141803050503</v>
       </c>
       <c r="H11">
-        <v>0.03495196944885492</v>
+        <v>0.03352870574000733</v>
       </c>
       <c r="I11">
-        <v>0.00484950590365596</v>
+        <v>0.003289466139890784</v>
       </c>
       <c r="J11">
-        <v>0.5101031416731416</v>
+        <v>0.4248327684368007</v>
       </c>
       <c r="K11">
-        <v>0.4454950035546545</v>
+        <v>0.3523935907175257</v>
       </c>
       <c r="L11">
-        <v>0.1240352035757626</v>
+        <v>0.1647100011568554</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1042591308691385</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1206222648122887</v>
       </c>
       <c r="O11">
-        <v>2.120828460638137</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>2.800145530982036</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>2.991566167901084</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>1.984117868601047</v>
+      </c>
+      <c r="R11">
+        <v>2.517496493259642</v>
+      </c>
+      <c r="S11">
+        <v>2.918010742995875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.7123291251119781</v>
+        <v>0.8624434266089338</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.1092898710867551</v>
+        <v>0.1086593197996315</v>
       </c>
       <c r="E12">
-        <v>0.09550663955737537</v>
+        <v>0.09217637584562643</v>
       </c>
       <c r="F12">
-        <v>1.025712908976899</v>
+        <v>1.005530789128485</v>
       </c>
       <c r="G12">
-        <v>0.8806465587357053</v>
+        <v>1.008515472959644</v>
       </c>
       <c r="H12">
-        <v>0.07293963152395833</v>
+        <v>0.07148836599458974</v>
       </c>
       <c r="I12">
-        <v>0.004734939744512445</v>
+        <v>0.003224509577910872</v>
       </c>
       <c r="J12">
-        <v>0.4842634716660683</v>
+        <v>0.3707031347182266</v>
       </c>
       <c r="K12">
-        <v>0.461197057236383</v>
+        <v>0.363827157835253</v>
       </c>
       <c r="L12">
-        <v>0.1285124416797814</v>
+        <v>0.1711920152672981</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1067218005457349</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.1228004583964459</v>
       </c>
       <c r="O12">
-        <v>1.99305330391158</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2.918690358034212</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>2.833511375868483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.85187259566537</v>
+      </c>
+      <c r="R12">
+        <v>2.62333663577698</v>
+      </c>
+      <c r="S12">
+        <v>2.736116967384419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7165046337613319</v>
+        <v>0.870293607910952</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.09855491614009537</v>
+        <v>0.09687363761885948</v>
       </c>
       <c r="E13">
-        <v>0.09612113772677411</v>
+        <v>0.09133309670505341</v>
       </c>
       <c r="F13">
-        <v>0.9234881327867015</v>
+        <v>0.9067145743922254</v>
       </c>
       <c r="G13">
-        <v>0.8099547424754405</v>
+        <v>0.9272961179557768</v>
       </c>
       <c r="H13">
-        <v>0.1273894232558774</v>
+        <v>0.1260295640572053</v>
       </c>
       <c r="I13">
-        <v>0.004758658765978474</v>
+        <v>0.003206897636686357</v>
       </c>
       <c r="J13">
-        <v>0.4494145326265482</v>
+        <v>0.3496278104196477</v>
       </c>
       <c r="K13">
-        <v>0.471048760885985</v>
+        <v>0.3703036594224827</v>
       </c>
       <c r="L13">
-        <v>0.1461285171448203</v>
+        <v>0.1732236085830188</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.109421520764144</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.1382611492804173</v>
       </c>
       <c r="O13">
-        <v>1.817300252504253</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>2.974743161844657</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>2.610672530604973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>1.681935547014788</v>
+      </c>
+      <c r="R13">
+        <v>2.669007878932888</v>
+      </c>
+      <c r="S13">
+        <v>2.524480518145424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7087880878988528</v>
+        <v>0.8637186621279511</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.09258694210527452</v>
+        <v>0.09002814739120524</v>
       </c>
       <c r="E14">
-        <v>0.1008437877476016</v>
+        <v>0.09515143420937733</v>
       </c>
       <c r="F14">
-        <v>0.8443940255585574</v>
+        <v>0.8337326962390534</v>
       </c>
       <c r="G14">
-        <v>0.7511722828463121</v>
+        <v>0.847589210539283</v>
       </c>
       <c r="H14">
-        <v>0.1756150254487636</v>
+        <v>0.1743647882547208</v>
       </c>
       <c r="I14">
-        <v>0.004925974436446268</v>
+        <v>0.003317598849204018</v>
       </c>
       <c r="J14">
-        <v>0.4211474400732556</v>
+        <v>0.3475623533553005</v>
       </c>
       <c r="K14">
-        <v>0.4760323994528335</v>
+        <v>0.3731192647787083</v>
       </c>
       <c r="L14">
-        <v>0.1662881698666538</v>
+        <v>0.1727850510748326</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1116613706419329</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.1570295184229735</v>
       </c>
       <c r="O14">
-        <v>1.674870746864599</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>2.988024749021662</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>2.426825447655517</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>1.547682412078956</v>
+      </c>
+      <c r="R14">
+        <v>2.67563053626904</v>
+      </c>
+      <c r="S14">
+        <v>2.36234733801777</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7007670628255198</v>
+        <v>0.8552796924851123</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.09133349248639533</v>
+        <v>0.08852265102643386</v>
       </c>
       <c r="E15">
-        <v>0.1024554793037744</v>
+        <v>0.09661851877329575</v>
       </c>
       <c r="F15">
-        <v>0.8210752357461644</v>
+        <v>0.8134678535368494</v>
       </c>
       <c r="G15">
-        <v>0.7322793695389862</v>
+        <v>0.8179822931317347</v>
       </c>
       <c r="H15">
-        <v>0.1876473897032014</v>
+        <v>0.1864488391024395</v>
       </c>
       <c r="I15">
-        <v>0.005123435316724212</v>
+        <v>0.003501104495386542</v>
       </c>
       <c r="J15">
-        <v>0.4123781192588041</v>
+        <v>0.3523451063237815</v>
       </c>
       <c r="K15">
-        <v>0.4769623292325775</v>
+        <v>0.3734768457963611</v>
       </c>
       <c r="L15">
-        <v>0.1718531412365181</v>
+        <v>0.1719890617933117</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.1125504340446959</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.1623393624563221</v>
       </c>
       <c r="O15">
-        <v>1.631272747273471</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>2.980850909628998</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>2.368381429730647</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>1.507687362138896</v>
+      </c>
+      <c r="R15">
+        <v>2.666911009538069</v>
+      </c>
+      <c r="S15">
+        <v>2.315040080363048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6554487054263518</v>
+        <v>0.8031706225316952</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.0915696747123107</v>
+        <v>0.0883462999643374</v>
       </c>
       <c r="E16">
-        <v>0.1008435730061095</v>
+        <v>0.09563496671583849</v>
       </c>
       <c r="F16">
-        <v>0.7836295136877993</v>
+        <v>0.7891724156031756</v>
       </c>
       <c r="G16">
-        <v>0.6900405443933835</v>
+        <v>0.7291439927651879</v>
       </c>
       <c r="H16">
-        <v>0.1726437041374425</v>
+        <v>0.1716818708725185</v>
       </c>
       <c r="I16">
-        <v>0.005614017891047318</v>
+        <v>0.003821136151264781</v>
       </c>
       <c r="J16">
-        <v>0.3952894960241338</v>
+        <v>0.397413492456451</v>
       </c>
       <c r="K16">
-        <v>0.4649211314272961</v>
+        <v>0.36356610846682</v>
       </c>
       <c r="L16">
-        <v>0.165873927052786</v>
+        <v>0.1630341032538141</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1132698962903724</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.1572379733858043</v>
       </c>
       <c r="O16">
-        <v>1.536948681711422</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>2.8495238169412</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>2.24286376885388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>1.428237086327556</v>
+      </c>
+      <c r="R16">
+        <v>2.542419605989096</v>
+      </c>
+      <c r="S16">
+        <v>2.238401018285629</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6246838163970097</v>
+        <v>0.7666650394443764</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.09465450709175904</v>
+        <v>0.0914537641147728</v>
       </c>
       <c r="E17">
-        <v>0.09640638048582684</v>
+        <v>0.09195083162312834</v>
       </c>
       <c r="F17">
-        <v>0.7965083639612089</v>
+        <v>0.8075943277675179</v>
       </c>
       <c r="G17">
-        <v>0.6887020925033056</v>
+        <v>0.7085227183548</v>
       </c>
       <c r="H17">
-        <v>0.1337308236463741</v>
+        <v>0.1328768472176449</v>
       </c>
       <c r="I17">
-        <v>0.00592895203496191</v>
+        <v>0.004036267939359739</v>
       </c>
       <c r="J17">
-        <v>0.3971585469997478</v>
+        <v>0.4270084603169266</v>
       </c>
       <c r="K17">
-        <v>0.4532800361709732</v>
+        <v>0.3548102700692937</v>
       </c>
       <c r="L17">
-        <v>0.1492954234143049</v>
+        <v>0.1567241507120478</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1126631798361508</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.141944595252788</v>
       </c>
       <c r="O17">
-        <v>1.539474040602627</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>2.742734911441318</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>2.243815503225846</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>1.436553809054459</v>
+      </c>
+      <c r="R17">
+        <v>2.445138047020578</v>
+      </c>
+      <c r="S17">
+        <v>2.259934976507225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6064796545576598</v>
+        <v>0.742922205954585</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1019092017215613</v>
+        <v>0.09891588496553538</v>
       </c>
       <c r="E18">
-        <v>0.09298654582964261</v>
+        <v>0.08948246464439924</v>
       </c>
       <c r="F18">
-        <v>0.8553755399113783</v>
+        <v>0.8688837831754626</v>
       </c>
       <c r="G18">
-        <v>0.7227717241687941</v>
+        <v>0.7345399812142546</v>
       </c>
       <c r="H18">
-        <v>0.08079814511578576</v>
+        <v>0.07997193628309418</v>
       </c>
       <c r="I18">
-        <v>0.005811411140087763</v>
+        <v>0.003826216862386822</v>
       </c>
       <c r="J18">
-        <v>0.4156405101765728</v>
+        <v>0.4576644499174165</v>
       </c>
       <c r="K18">
-        <v>0.4385598104982051</v>
+        <v>0.3443360983385944</v>
       </c>
       <c r="L18">
-        <v>0.1293352276017892</v>
+        <v>0.1512432301934084</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.110163544598219</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.1237858856823557</v>
       </c>
       <c r="O18">
-        <v>1.624515086751543</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>2.638367904394869</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>2.354665545840021</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>1.522965029507688</v>
+      </c>
+      <c r="R18">
+        <v>2.353721042182173</v>
+      </c>
+      <c r="S18">
+        <v>2.379427190009665</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5925242696121416</v>
+        <v>0.7240434835982796</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.1139263252891602</v>
+        <v>0.1112384510216593</v>
       </c>
       <c r="E19">
-        <v>0.09645266387004625</v>
+        <v>0.09398114118894796</v>
       </c>
       <c r="F19">
-        <v>0.9485533963374877</v>
+        <v>0.9628594503417816</v>
       </c>
       <c r="G19">
-        <v>0.7833798630704507</v>
+        <v>0.7931375031017609</v>
       </c>
       <c r="H19">
-        <v>0.03660164362941032</v>
+        <v>0.03573148499955181</v>
       </c>
       <c r="I19">
-        <v>0.005949292281711926</v>
+        <v>0.003984080248249811</v>
       </c>
       <c r="J19">
-        <v>0.4462472239774371</v>
+        <v>0.4919013774158714</v>
       </c>
       <c r="K19">
-        <v>0.4273531935751862</v>
+        <v>0.3367779206079717</v>
       </c>
       <c r="L19">
-        <v>0.1194616055884232</v>
+        <v>0.1479988695281769</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1077266496857092</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.1159172731159392</v>
       </c>
       <c r="O19">
-        <v>1.778726513239491</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>2.560360568458009</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>2.547213908097604</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.675246662132238</v>
+      </c>
+      <c r="R19">
+        <v>2.287248007455617</v>
+      </c>
+      <c r="S19">
+        <v>2.574302413740526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6040929902466132</v>
+        <v>0.7325137031097881</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.1387760615188967</v>
+        <v>0.1369347959030662</v>
       </c>
       <c r="E20">
-        <v>0.1179548933851269</v>
+        <v>0.1169535584694366</v>
       </c>
       <c r="F20">
-        <v>1.137079289320326</v>
+        <v>1.147109807932026</v>
       </c>
       <c r="G20">
-        <v>0.9180342284645491</v>
+        <v>0.9427845411021423</v>
       </c>
       <c r="H20">
-        <v>0.01476176435429721</v>
+        <v>0.01364429973957915</v>
       </c>
       <c r="I20">
-        <v>0.005696887322500288</v>
+        <v>0.003887359111455879</v>
       </c>
       <c r="J20">
-        <v>0.510636507317713</v>
+        <v>0.5353265096315312</v>
       </c>
       <c r="K20">
-        <v>0.4173971686842179</v>
+        <v>0.3308606793669249</v>
       </c>
       <c r="L20">
-        <v>0.1355365240755102</v>
+        <v>0.1484346660411191</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1031558597599656</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1346287978630141</v>
       </c>
       <c r="O20">
-        <v>2.113493411551744</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>2.528331412209837</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>2.967607797320682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>2.000232333408178</v>
+      </c>
+      <c r="R20">
+        <v>2.266774828337162</v>
+      </c>
+      <c r="S20">
+        <v>2.978664515809726</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6789503739476288</v>
+        <v>0.8173478153483984</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.1465566401292691</v>
+        <v>0.1480935581868579</v>
       </c>
       <c r="E21">
-        <v>0.1247424171208706</v>
+        <v>0.1248299788488563</v>
       </c>
       <c r="F21">
-        <v>1.269334067414206</v>
+        <v>1.245952577016311</v>
       </c>
       <c r="G21">
-        <v>1.03790713447394</v>
+        <v>1.172437983210301</v>
       </c>
       <c r="H21">
-        <v>0.01994636679495432</v>
+        <v>0.01827224591082832</v>
       </c>
       <c r="I21">
-        <v>0.004988195837526632</v>
+        <v>0.003526220096784272</v>
       </c>
       <c r="J21">
-        <v>0.5629107487106779</v>
+        <v>0.438623587198478</v>
       </c>
       <c r="K21">
-        <v>0.4334961823785406</v>
+        <v>0.3447583787850377</v>
       </c>
       <c r="L21">
-        <v>0.1434277998049858</v>
+        <v>0.1623997942957445</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1010087226067142</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1427326784980956</v>
       </c>
       <c r="O21">
-        <v>2.394851691591015</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>2.727462596720642</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>3.331519325116005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>2.246425219783646</v>
+      </c>
+      <c r="R21">
+        <v>2.459341025315666</v>
+      </c>
+      <c r="S21">
+        <v>3.225848807336007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7326166743397664</v>
+        <v>0.8776752959766725</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.1505089838477076</v>
+        <v>0.1546103672298145</v>
       </c>
       <c r="E22">
-        <v>0.1278866392218294</v>
+        <v>0.1287570494658183</v>
       </c>
       <c r="F22">
-        <v>1.349751559800993</v>
+        <v>1.301811862224184</v>
       </c>
       <c r="G22">
-        <v>1.11251694168584</v>
+        <v>1.330364711989745</v>
       </c>
       <c r="H22">
-        <v>0.02354843686022079</v>
+        <v>0.02147180845731678</v>
       </c>
       <c r="I22">
-        <v>0.004252098203239463</v>
+        <v>0.002945221082266691</v>
       </c>
       <c r="J22">
-        <v>0.5953058068863015</v>
+        <v>0.3738575946572098</v>
       </c>
       <c r="K22">
-        <v>0.4423652999705681</v>
+        <v>0.3527518319477281</v>
       </c>
       <c r="L22">
-        <v>0.1471681937496925</v>
+        <v>0.1715503072950852</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.0991970418327206</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1465369655162299</v>
       </c>
       <c r="O22">
-        <v>2.561999310387847</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>2.853572371044947</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>3.557726413310661</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>2.389211621967576</v>
+      </c>
+      <c r="R22">
+        <v>2.582823811608279</v>
+      </c>
+      <c r="S22">
+        <v>3.366795904345508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7085047916536382</v>
+        <v>0.8497871636863579</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.1484939227182522</v>
+        <v>0.1508023739516915</v>
       </c>
       <c r="E23">
-        <v>0.1263287720872839</v>
+        <v>0.1266419487725283</v>
       </c>
       <c r="F23">
-        <v>1.307218414348156</v>
+        <v>1.276096989022449</v>
       </c>
       <c r="G23">
-        <v>1.072915871016136</v>
+        <v>1.23344374077584</v>
       </c>
       <c r="H23">
-        <v>0.02159146560731662</v>
+        <v>0.01976001422695217</v>
       </c>
       <c r="I23">
-        <v>0.004301906539635247</v>
+        <v>0.002858284902668373</v>
       </c>
       <c r="J23">
-        <v>0.5781260747369572</v>
+        <v>0.4221585309651914</v>
       </c>
       <c r="K23">
-        <v>0.4348452594374308</v>
+        <v>0.3462522672180484</v>
       </c>
       <c r="L23">
-        <v>0.1453205218542877</v>
+        <v>0.1657620576821195</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.09936731473023741</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1446293798816747</v>
       </c>
       <c r="O23">
-        <v>2.46879158257245</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>2.776814214181968</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>3.437691968867341</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>2.31255584299889</v>
+      </c>
+      <c r="R23">
+        <v>2.507969467116482</v>
+      </c>
+      <c r="S23">
+        <v>3.305030749706475</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6089730047312401</v>
+        <v>0.7367413846072282</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.1408049476770401</v>
+        <v>0.1389624037231556</v>
       </c>
       <c r="E24">
-        <v>0.1202565087372403</v>
+        <v>0.1193338807260336</v>
       </c>
       <c r="F24">
-        <v>1.147660522906079</v>
+        <v>1.157874869568516</v>
       </c>
       <c r="G24">
-        <v>0.9244651322244692</v>
+        <v>0.9483351200219658</v>
       </c>
       <c r="H24">
-        <v>0.01483970220054337</v>
+        <v>0.01371709170727869</v>
       </c>
       <c r="I24">
-        <v>0.005156723461151813</v>
+        <v>0.003258150044766595</v>
       </c>
       <c r="J24">
-        <v>0.5139161610513554</v>
+        <v>0.539875116360605</v>
       </c>
       <c r="K24">
-        <v>0.4118286809958462</v>
+        <v>0.3267906447226032</v>
       </c>
       <c r="L24">
-        <v>0.1380706981369926</v>
+        <v>0.1468371634646068</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1017085267729492</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1373351162874563</v>
       </c>
       <c r="O24">
-        <v>2.12271138475829</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>2.503850027535691</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.988103048520372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>2.010275543960802</v>
+      </c>
+      <c r="R24">
+        <v>2.245892496555342</v>
+      </c>
+      <c r="S24">
+        <v>2.999901336584202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4999907219218471</v>
+        <v>0.6142886462244235</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.1326978334189448</v>
+        <v>0.130648128214581</v>
       </c>
       <c r="E25">
-        <v>0.113724628105567</v>
+        <v>0.1127567188627037</v>
       </c>
       <c r="F25">
-        <v>0.9798616901164792</v>
+        <v>0.9933235612321027</v>
       </c>
       <c r="G25">
-        <v>0.7680374515234263</v>
+        <v>0.7768084144226748</v>
       </c>
       <c r="H25">
-        <v>0.008770791969937325</v>
+        <v>0.008041618995279443</v>
       </c>
       <c r="I25">
-        <v>0.006365880697848603</v>
+        <v>0.003936029510838601</v>
       </c>
       <c r="J25">
-        <v>0.4467439479686277</v>
+        <v>0.4898870288068053</v>
       </c>
       <c r="K25">
-        <v>0.3889170979579006</v>
+        <v>0.3090873513205032</v>
       </c>
       <c r="L25">
-        <v>0.1301800871564875</v>
+        <v>0.1296796372198763</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1052761055029166</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1294639360200289</v>
       </c>
       <c r="O25">
-        <v>1.749965238602726</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>2.214061596242061</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>2.515328870158385</v>
+        <v>1.652052296643731</v>
+      </c>
+      <c r="R25">
+        <v>1.978754778313743</v>
+      </c>
+      <c r="S25">
+        <v>2.540941366732085</v>
       </c>
     </row>
   </sheetData>
